--- a/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745BC61-D34E-451D-9660-113A97BFAAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFB308-C65E-4D0C-B159-B81FDB9ECB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,24 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -76,6 +61,9 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>متانول</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
   </si>
   <si>
     <t>ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -654,16 +639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N80"/>
+  <dimension ref="B1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,13 +657,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,13 +669,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,13 +681,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,13 +691,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,13 +703,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,13 +715,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,13 +725,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -797,23 +747,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,15 +757,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -839,130 +769,80 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>382015</v>
-      </c>
-      <c r="F11" s="11">
-        <v>324153</v>
+        <v>158098</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="11">
-        <v>325882</v>
+        <v>306950</v>
       </c>
       <c r="H11" s="11">
-        <v>226224</v>
+        <v>246208</v>
       </c>
       <c r="I11" s="11">
-        <v>332803</v>
-      </c>
-      <c r="J11" s="11">
-        <v>286947</v>
-      </c>
-      <c r="K11" s="11">
-        <v>158098</v>
-      </c>
-      <c r="L11" s="11">
-        <v>212823</v>
-      </c>
-      <c r="M11" s="11">
-        <v>306950</v>
-      </c>
-      <c r="N11" s="11">
-        <v>246208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>212779</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>26731</v>
-      </c>
-      <c r="F12" s="13">
-        <v>38396</v>
+        <v>53177</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="13">
-        <v>49276</v>
+        <v>43829</v>
       </c>
       <c r="H12" s="13">
-        <v>53041</v>
+        <v>45026</v>
       </c>
       <c r="I12" s="13">
-        <v>53994</v>
-      </c>
-      <c r="J12" s="13">
-        <v>47057</v>
-      </c>
-      <c r="K12" s="13">
-        <v>53177</v>
-      </c>
-      <c r="L12" s="13">
-        <v>50669</v>
-      </c>
-      <c r="M12" s="13">
-        <v>43829</v>
-      </c>
-      <c r="N12" s="13">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>42974</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
-        <v>408746</v>
+        <v>211275</v>
       </c>
       <c r="F13" s="15">
-        <v>362549</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>375158</v>
+        <v>350779</v>
       </c>
       <c r="H13" s="15">
-        <v>279265</v>
+        <v>291234</v>
       </c>
       <c r="I13" s="15">
-        <v>386797</v>
-      </c>
-      <c r="J13" s="15">
-        <v>334004</v>
-      </c>
-      <c r="K13" s="15">
-        <v>211275</v>
-      </c>
-      <c r="L13" s="15">
-        <v>263492</v>
-      </c>
-      <c r="M13" s="15">
-        <v>350779</v>
-      </c>
-      <c r="N13" s="15">
-        <v>291234</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>255753</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -971,91 +851,56 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>794013</v>
-      </c>
-      <c r="F15" s="11">
-        <v>674232</v>
+        <v>422958</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="11">
-        <v>877087</v>
+        <v>739837</v>
       </c>
       <c r="H15" s="11">
-        <v>502646</v>
+        <v>697281</v>
       </c>
       <c r="I15" s="11">
-        <v>772769</v>
-      </c>
-      <c r="J15" s="11">
-        <v>666977</v>
-      </c>
-      <c r="K15" s="11">
-        <v>422958</v>
-      </c>
-      <c r="L15" s="11">
-        <v>380356</v>
-      </c>
-      <c r="M15" s="11">
-        <v>739837</v>
-      </c>
-      <c r="N15" s="11">
-        <v>697281</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>501075</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
-        <v>794013</v>
+        <v>422958</v>
       </c>
       <c r="F16" s="17">
-        <v>674232</v>
+        <v>0</v>
       </c>
       <c r="G16" s="17">
-        <v>877087</v>
+        <v>739837</v>
       </c>
       <c r="H16" s="17">
-        <v>502646</v>
+        <v>697281</v>
       </c>
       <c r="I16" s="17">
-        <v>772769</v>
-      </c>
-      <c r="J16" s="17">
-        <v>666977</v>
-      </c>
-      <c r="K16" s="17">
-        <v>422958</v>
-      </c>
-      <c r="L16" s="17">
-        <v>380356</v>
-      </c>
-      <c r="M16" s="17">
-        <v>739837</v>
-      </c>
-      <c r="N16" s="17">
-        <v>697281</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>501075</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1064,15 +909,10 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1091,72 +931,42 @@
       <c r="I18" s="15">
         <v>0</v>
       </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
         <v>0</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
+      <c r="F20" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -1164,63 +974,33 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>1202759</v>
+        <v>634233</v>
       </c>
       <c r="F21" s="17">
-        <v>1036781</v>
+        <v>0</v>
       </c>
       <c r="G21" s="17">
-        <v>1252245</v>
+        <v>1090615</v>
       </c>
       <c r="H21" s="17">
-        <v>781911</v>
+        <v>988516</v>
       </c>
       <c r="I21" s="17">
-        <v>1159566</v>
-      </c>
-      <c r="J21" s="17">
-        <v>1000981</v>
-      </c>
-      <c r="K21" s="17">
-        <v>634233</v>
-      </c>
-      <c r="L21" s="17">
-        <v>643848</v>
-      </c>
-      <c r="M21" s="17">
-        <v>1090615</v>
-      </c>
-      <c r="N21" s="17">
-        <v>988516</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>756828</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1229,13 +1009,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1244,13 +1019,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1259,15 +1029,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1286,23 +1051,8 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1311,15 +1061,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1328,130 +1073,80 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>256762</v>
-      </c>
-      <c r="F28" s="11">
-        <v>217874</v>
+        <v>126672</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="11">
-        <v>219036</v>
+        <v>553354</v>
       </c>
       <c r="H28" s="11">
-        <v>314486</v>
+        <v>443851</v>
       </c>
       <c r="I28" s="11">
-        <v>266649</v>
-      </c>
-      <c r="J28" s="11">
-        <v>229908</v>
-      </c>
-      <c r="K28" s="11">
-        <v>126672</v>
-      </c>
-      <c r="L28" s="11">
-        <v>170518</v>
-      </c>
-      <c r="M28" s="11">
-        <v>553354</v>
-      </c>
-      <c r="N28" s="11">
-        <v>443851</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+        <v>383587</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>436124</v>
-      </c>
-      <c r="F29" s="13">
-        <v>717444</v>
+        <v>4394809</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="13">
-        <v>1814100</v>
+        <v>3018125</v>
       </c>
       <c r="H29" s="13">
-        <v>3112702</v>
+        <v>2973228</v>
       </c>
       <c r="I29" s="13">
-        <v>2955533</v>
-      </c>
-      <c r="J29" s="13">
-        <v>2597267</v>
-      </c>
-      <c r="K29" s="13">
-        <v>4394809</v>
-      </c>
-      <c r="L29" s="13">
-        <v>3742701</v>
-      </c>
-      <c r="M29" s="13">
-        <v>3018125</v>
-      </c>
-      <c r="N29" s="13">
-        <v>2973228</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2839699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>692886</v>
+        <v>4521481</v>
       </c>
       <c r="F30" s="15">
-        <v>935318</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>2033136</v>
+        <v>3571479</v>
       </c>
       <c r="H30" s="15">
-        <v>3427188</v>
+        <v>3417079</v>
       </c>
       <c r="I30" s="15">
-        <v>3222182</v>
-      </c>
-      <c r="J30" s="15">
-        <v>2827175</v>
-      </c>
-      <c r="K30" s="15">
-        <v>4521481</v>
-      </c>
-      <c r="L30" s="15">
-        <v>3913219</v>
-      </c>
-      <c r="M30" s="15">
-        <v>3571479</v>
-      </c>
-      <c r="N30" s="15">
-        <v>3417079</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3223286</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1460,91 +1155,56 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>19789726</v>
-      </c>
-      <c r="F32" s="11">
-        <v>24652268</v>
+        <v>41021731</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G32" s="11">
-        <v>55357747</v>
+        <v>65935735</v>
       </c>
       <c r="H32" s="11">
-        <v>36346499</v>
+        <v>54653710</v>
       </c>
       <c r="I32" s="11">
-        <v>51463183</v>
-      </c>
-      <c r="J32" s="11">
-        <v>51339755</v>
-      </c>
-      <c r="K32" s="11">
-        <v>41021731</v>
-      </c>
-      <c r="L32" s="11">
-        <v>34320728</v>
-      </c>
-      <c r="M32" s="11">
-        <v>65935735</v>
-      </c>
-      <c r="N32" s="11">
-        <v>54653710</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>43134089</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>19789726</v>
+        <v>41021731</v>
       </c>
       <c r="F33" s="17">
-        <v>24652268</v>
+        <v>0</v>
       </c>
       <c r="G33" s="17">
-        <v>55357747</v>
+        <v>65935735</v>
       </c>
       <c r="H33" s="17">
-        <v>36346499</v>
+        <v>54653710</v>
       </c>
       <c r="I33" s="17">
-        <v>51463183</v>
-      </c>
-      <c r="J33" s="17">
-        <v>51339755</v>
-      </c>
-      <c r="K33" s="17">
-        <v>41021731</v>
-      </c>
-      <c r="L33" s="17">
-        <v>34320728</v>
-      </c>
-      <c r="M33" s="17">
-        <v>65935735</v>
-      </c>
-      <c r="N33" s="17">
-        <v>54653710</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>43134089</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1553,15 +1213,10 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1580,74 +1235,44 @@
       <c r="I35" s="15">
         <v>0</v>
       </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
+      <c r="E36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I36" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
+      <c r="F37" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G37" s="15">
         <v>0</v>
@@ -1655,63 +1280,33 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
-        <v>20482612</v>
+        <v>45543212</v>
       </c>
       <c r="F38" s="17">
-        <v>25587586</v>
+        <v>0</v>
       </c>
       <c r="G38" s="17">
-        <v>57390883</v>
+        <v>69507214</v>
       </c>
       <c r="H38" s="17">
-        <v>39773687</v>
+        <v>58070789</v>
       </c>
       <c r="I38" s="17">
-        <v>54685365</v>
-      </c>
-      <c r="J38" s="17">
-        <v>54166930</v>
-      </c>
-      <c r="K38" s="17">
-        <v>45543212</v>
-      </c>
-      <c r="L38" s="17">
-        <v>38233947</v>
-      </c>
-      <c r="M38" s="17">
-        <v>69507214</v>
-      </c>
-      <c r="N38" s="17">
-        <v>58070789</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>46357375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1720,13 +1315,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1735,13 +1325,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1750,15 +1335,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1777,23 +1357,8 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1802,15 +1367,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1819,93 +1379,58 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>672125</v>
+        <v>801225</v>
       </c>
       <c r="F45" s="11">
-        <v>672133</v>
+        <v>801220</v>
       </c>
       <c r="G45" s="11">
-        <v>672133</v>
+        <v>1802750</v>
       </c>
       <c r="H45" s="11">
-        <v>1390153</v>
+        <v>1802748</v>
       </c>
       <c r="I45" s="11">
-        <v>801222</v>
-      </c>
-      <c r="J45" s="11">
-        <v>801221</v>
-      </c>
-      <c r="K45" s="11">
-        <v>801225</v>
-      </c>
-      <c r="L45" s="11">
-        <v>801220</v>
-      </c>
-      <c r="M45" s="11">
-        <v>1802750</v>
-      </c>
-      <c r="N45" s="11">
         <v>1802748</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>16315289</v>
+        <v>82644922</v>
       </c>
       <c r="F46" s="13">
-        <v>18685384</v>
+        <v>73865697</v>
       </c>
       <c r="G46" s="13">
-        <v>36815082</v>
+        <v>68861999</v>
       </c>
       <c r="H46" s="13">
-        <v>58684829</v>
+        <v>66032994</v>
       </c>
       <c r="I46" s="13">
-        <v>54738175</v>
-      </c>
-      <c r="J46" s="13">
-        <v>55172599</v>
-      </c>
-      <c r="K46" s="13">
-        <v>82644922</v>
-      </c>
-      <c r="L46" s="13">
-        <v>73865697</v>
-      </c>
-      <c r="M46" s="13">
-        <v>68861999</v>
-      </c>
-      <c r="N46" s="13">
-        <v>66032994</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>66079344</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1914,52 +1439,32 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>24923680</v>
+        <v>96987717</v>
       </c>
       <c r="F48" s="11">
-        <v>36563480</v>
+        <v>90233171</v>
       </c>
       <c r="G48" s="11">
-        <v>63115457</v>
+        <v>89122024</v>
       </c>
       <c r="H48" s="11">
-        <v>72310332</v>
+        <v>78381139</v>
       </c>
       <c r="I48" s="11">
-        <v>66595817</v>
-      </c>
-      <c r="J48" s="11">
-        <v>76973801</v>
-      </c>
-      <c r="K48" s="11">
-        <v>96987717</v>
-      </c>
-      <c r="L48" s="11">
-        <v>90233171</v>
-      </c>
-      <c r="M48" s="11">
-        <v>89122024</v>
-      </c>
-      <c r="N48" s="11">
-        <v>78381139</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>86083079</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1968,13 +1473,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1983,13 +1483,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1998,15 +1493,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2025,23 +1515,8 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2050,15 +1525,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2067,130 +1537,80 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>-20641</v>
+        <v>-38102</v>
       </c>
       <c r="F55" s="11">
-        <v>-17287</v>
+        <v>-50020</v>
       </c>
       <c r="G55" s="11">
-        <v>-46873</v>
+        <v>-49050</v>
       </c>
       <c r="H55" s="11">
-        <v>-22894</v>
+        <v>-56139</v>
       </c>
       <c r="I55" s="11">
-        <v>-36680</v>
-      </c>
-      <c r="J55" s="11">
-        <v>-22125</v>
-      </c>
-      <c r="K55" s="11">
-        <v>-38102</v>
-      </c>
-      <c r="L55" s="11">
-        <v>-50020</v>
-      </c>
-      <c r="M55" s="11">
-        <v>-49050</v>
-      </c>
-      <c r="N55" s="11">
-        <v>-56139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-35357</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>-277152</v>
+        <v>-3007612</v>
       </c>
       <c r="F56" s="13">
-        <v>-208138</v>
+        <v>-4783268</v>
       </c>
       <c r="G56" s="13">
-        <v>-1422614</v>
+        <v>-2465959</v>
       </c>
       <c r="H56" s="13">
-        <v>-1492512</v>
+        <v>-2730821</v>
       </c>
       <c r="I56" s="13">
-        <v>-1362087</v>
-      </c>
-      <c r="J56" s="13">
-        <v>-1902081</v>
-      </c>
-      <c r="K56" s="13">
-        <v>-3007612</v>
-      </c>
-      <c r="L56" s="13">
-        <v>-4783268</v>
-      </c>
-      <c r="M56" s="13">
-        <v>-2465959</v>
-      </c>
-      <c r="N56" s="13">
-        <v>-2694560</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2397434</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>-297793</v>
+        <v>-3045714</v>
       </c>
       <c r="F57" s="15">
-        <v>-225425</v>
+        <v>-4833288</v>
       </c>
       <c r="G57" s="15">
-        <v>-1469487</v>
+        <v>-2515009</v>
       </c>
       <c r="H57" s="15">
-        <v>-1515406</v>
+        <v>-2786960</v>
       </c>
       <c r="I57" s="15">
-        <v>-1398767</v>
-      </c>
-      <c r="J57" s="15">
-        <v>-1924206</v>
-      </c>
-      <c r="K57" s="15">
-        <v>-3045714</v>
-      </c>
-      <c r="L57" s="15">
-        <v>-4833288</v>
-      </c>
-      <c r="M57" s="15">
-        <v>-2515009</v>
-      </c>
-      <c r="N57" s="15">
-        <v>-2750699</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2432791</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2199,91 +1619,56 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>-8232488</v>
+        <v>-29241110</v>
       </c>
       <c r="F59" s="11">
-        <v>-10463631</v>
+        <v>-45274404</v>
       </c>
       <c r="G59" s="11">
-        <v>-20417079</v>
+        <v>-41626528</v>
       </c>
       <c r="H59" s="11">
-        <v>-18722915</v>
+        <v>-42424858</v>
       </c>
       <c r="I59" s="11">
-        <v>-19494368</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-27012566</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-29241110</v>
-      </c>
-      <c r="L59" s="11">
-        <v>-45274404</v>
-      </c>
-      <c r="M59" s="11">
-        <v>-41626528</v>
-      </c>
-      <c r="N59" s="11">
-        <v>-41838377</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-27601229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
-        <v>-8232488</v>
+        <v>-29241110</v>
       </c>
       <c r="F60" s="17">
-        <v>-10463631</v>
+        <v>-45274404</v>
       </c>
       <c r="G60" s="17">
-        <v>-20417079</v>
+        <v>-41626528</v>
       </c>
       <c r="H60" s="17">
-        <v>-18722915</v>
+        <v>-42424858</v>
       </c>
       <c r="I60" s="17">
-        <v>-19494368</v>
-      </c>
-      <c r="J60" s="17">
-        <v>-27012566</v>
-      </c>
-      <c r="K60" s="17">
-        <v>-29241110</v>
-      </c>
-      <c r="L60" s="17">
-        <v>-45274404</v>
-      </c>
-      <c r="M60" s="17">
-        <v>-41626528</v>
-      </c>
-      <c r="N60" s="17">
-        <v>-41838377</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-27601229</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -2292,15 +1677,10 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -2319,67 +1699,37 @@
       <c r="I62" s="15">
         <v>0</v>
       </c>
-      <c r="J62" s="15">
-        <v>0</v>
-      </c>
-      <c r="K62" s="15">
-        <v>0</v>
-      </c>
-      <c r="L62" s="15">
-        <v>0</v>
-      </c>
-      <c r="M62" s="15">
-        <v>0</v>
-      </c>
-      <c r="N62" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D63" s="17"/>
-      <c r="E63" s="17">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
-        <v>0</v>
+      <c r="E63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I63" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
@@ -2394,63 +1744,33 @@
       <c r="H64" s="15">
         <v>0</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="15">
-        <v>0</v>
-      </c>
-      <c r="K64" s="15">
-        <v>0</v>
-      </c>
-      <c r="L64" s="15">
-        <v>0</v>
-      </c>
-      <c r="M64" s="15">
-        <v>0</v>
-      </c>
-      <c r="N64" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
-        <v>-8530281</v>
+        <v>-32286824</v>
       </c>
       <c r="F65" s="17">
-        <v>-10689056</v>
+        <v>-50107692</v>
       </c>
       <c r="G65" s="17">
-        <v>-21886566</v>
+        <v>-44141537</v>
       </c>
       <c r="H65" s="17">
-        <v>-20238321</v>
+        <v>-45211818</v>
       </c>
       <c r="I65" s="17">
-        <v>-20893135</v>
-      </c>
-      <c r="J65" s="17">
-        <v>-28936772</v>
-      </c>
-      <c r="K65" s="17">
-        <v>-32286824</v>
-      </c>
-      <c r="L65" s="17">
-        <v>-50107692</v>
-      </c>
-      <c r="M65" s="17">
-        <v>-44141537</v>
-      </c>
-      <c r="N65" s="17">
-        <v>-44589076</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-30034020</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2459,13 +1779,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2474,13 +1789,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2489,15 +1799,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2516,23 +1821,8 @@
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2541,15 +1831,10 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2558,130 +1843,80 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>236121</v>
+        <v>88570</v>
       </c>
       <c r="F72" s="11">
-        <v>200587</v>
+        <v>120498</v>
       </c>
       <c r="G72" s="11">
-        <v>172163</v>
+        <v>504304</v>
       </c>
       <c r="H72" s="11">
-        <v>291592</v>
+        <v>387712</v>
       </c>
       <c r="I72" s="11">
-        <v>229969</v>
-      </c>
-      <c r="J72" s="11">
-        <v>207783</v>
-      </c>
-      <c r="K72" s="11">
-        <v>88570</v>
-      </c>
-      <c r="L72" s="11">
-        <v>120498</v>
-      </c>
-      <c r="M72" s="11">
-        <v>504304</v>
-      </c>
-      <c r="N72" s="11">
-        <v>387712</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+        <v>348230</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>158972</v>
+        <v>1387197</v>
       </c>
       <c r="F73" s="13">
-        <v>509306</v>
+        <v>-1040567</v>
       </c>
       <c r="G73" s="13">
-        <v>391486</v>
+        <v>552166</v>
       </c>
       <c r="H73" s="13">
-        <v>1620190</v>
+        <v>242407</v>
       </c>
       <c r="I73" s="13">
-        <v>1593446</v>
-      </c>
-      <c r="J73" s="13">
-        <v>694176</v>
-      </c>
-      <c r="K73" s="13">
-        <v>1387197</v>
-      </c>
-      <c r="L73" s="13">
-        <v>-1040567</v>
-      </c>
-      <c r="M73" s="13">
-        <v>552166</v>
-      </c>
-      <c r="N73" s="13">
-        <v>278668</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+        <v>442265</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>395093</v>
+        <v>1475767</v>
       </c>
       <c r="F74" s="15">
-        <v>709893</v>
+        <v>-920069</v>
       </c>
       <c r="G74" s="15">
-        <v>563649</v>
+        <v>1056470</v>
       </c>
       <c r="H74" s="15">
-        <v>1911782</v>
+        <v>630119</v>
       </c>
       <c r="I74" s="15">
-        <v>1823415</v>
-      </c>
-      <c r="J74" s="15">
-        <v>901959</v>
-      </c>
-      <c r="K74" s="15">
-        <v>1475767</v>
-      </c>
-      <c r="L74" s="15">
-        <v>-920069</v>
-      </c>
-      <c r="M74" s="15">
-        <v>1056470</v>
-      </c>
-      <c r="N74" s="15">
-        <v>666380</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+        <v>790495</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2690,91 +1925,56 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>11557238</v>
+        <v>11780621</v>
       </c>
       <c r="F76" s="11">
-        <v>14188637</v>
+        <v>-10953676</v>
       </c>
       <c r="G76" s="11">
-        <v>34940668</v>
+        <v>24309207</v>
       </c>
       <c r="H76" s="11">
-        <v>17623584</v>
+        <v>12228852</v>
       </c>
       <c r="I76" s="11">
-        <v>31968815</v>
-      </c>
-      <c r="J76" s="11">
-        <v>24327189</v>
-      </c>
-      <c r="K76" s="11">
-        <v>11780621</v>
-      </c>
-      <c r="L76" s="11">
-        <v>-10953676</v>
-      </c>
-      <c r="M76" s="11">
-        <v>24309207</v>
-      </c>
-      <c r="N76" s="11">
-        <v>12815333</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15532860</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17">
-        <v>11557238</v>
+        <v>11780621</v>
       </c>
       <c r="F77" s="17">
-        <v>14188637</v>
+        <v>-10953676</v>
       </c>
       <c r="G77" s="17">
-        <v>34940668</v>
+        <v>24309207</v>
       </c>
       <c r="H77" s="17">
-        <v>17623584</v>
+        <v>12228852</v>
       </c>
       <c r="I77" s="17">
-        <v>31968815</v>
-      </c>
-      <c r="J77" s="17">
-        <v>24327189</v>
-      </c>
-      <c r="K77" s="17">
-        <v>11780621</v>
-      </c>
-      <c r="L77" s="17">
-        <v>-10953676</v>
-      </c>
-      <c r="M77" s="17">
-        <v>24309207</v>
-      </c>
-      <c r="N77" s="17">
-        <v>12815333</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>15532860</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -2783,15 +1983,10 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2810,57 +2005,27 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-      <c r="J79" s="15">
-        <v>0</v>
-      </c>
-      <c r="K79" s="15">
-        <v>0</v>
-      </c>
-      <c r="L79" s="15">
-        <v>0</v>
-      </c>
-      <c r="M79" s="15">
-        <v>0</v>
-      </c>
-      <c r="N79" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>11952331</v>
+        <v>13256388</v>
       </c>
       <c r="F80" s="17">
-        <v>14898530</v>
+        <v>-11873745</v>
       </c>
       <c r="G80" s="17">
-        <v>35504317</v>
+        <v>25365677</v>
       </c>
       <c r="H80" s="17">
-        <v>19535366</v>
+        <v>12858971</v>
       </c>
       <c r="I80" s="17">
-        <v>33792230</v>
-      </c>
-      <c r="J80" s="17">
-        <v>25229148</v>
-      </c>
-      <c r="K80" s="17">
-        <v>13256388</v>
-      </c>
-      <c r="L80" s="17">
-        <v>-11873745</v>
-      </c>
-      <c r="M80" s="17">
-        <v>25365677</v>
-      </c>
-      <c r="N80" s="17">
-        <v>13481713</v>
+        <v>16323355</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFB308-C65E-4D0C-B159-B81FDB9ECB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28E6DB-F067-483E-8C8C-55036A52A3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -61,31 +76,31 @@
     <t>تن</t>
   </si>
   <si>
+    <t>متانول</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>متانول</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -639,16 +654,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I80"/>
+  <dimension ref="B1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -657,8 +672,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,8 +689,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -681,8 +706,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,8 +721,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +738,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,8 +755,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -725,8 +770,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -747,8 +797,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -757,10 +822,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -769,80 +839,130 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>324153</v>
+      </c>
+      <c r="F11" s="11">
+        <v>325882</v>
+      </c>
+      <c r="G11" s="11">
+        <v>226224</v>
+      </c>
+      <c r="H11" s="11">
+        <v>332803</v>
+      </c>
+      <c r="I11" s="11">
+        <v>286947</v>
+      </c>
+      <c r="J11" s="11">
         <v>158098</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>212823</v>
+      </c>
+      <c r="L11" s="11">
         <v>306950</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>246208</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>212779</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>38396</v>
+      </c>
+      <c r="F12" s="13">
+        <v>49276</v>
+      </c>
+      <c r="G12" s="13">
+        <v>53041</v>
+      </c>
+      <c r="H12" s="13">
+        <v>53994</v>
+      </c>
+      <c r="I12" s="13">
+        <v>47057</v>
+      </c>
+      <c r="J12" s="13">
         <v>53177</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>50669</v>
+      </c>
+      <c r="L12" s="13">
         <v>43829</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>45026</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>42974</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
+        <v>362549</v>
+      </c>
+      <c r="F13" s="15">
+        <v>375158</v>
+      </c>
+      <c r="G13" s="15">
+        <v>279265</v>
+      </c>
+      <c r="H13" s="15">
+        <v>386797</v>
+      </c>
+      <c r="I13" s="15">
+        <v>334004</v>
+      </c>
+      <c r="J13" s="15">
         <v>211275</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15">
+        <v>263492</v>
+      </c>
+      <c r="L13" s="15">
         <v>350779</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>291234</v>
       </c>
-      <c r="I13" s="15">
+      <c r="N13" s="15">
         <v>255753</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -851,56 +971,91 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>674232</v>
+      </c>
+      <c r="F15" s="11">
+        <v>877087</v>
+      </c>
+      <c r="G15" s="11">
+        <v>502646</v>
+      </c>
+      <c r="H15" s="11">
+        <v>772769</v>
+      </c>
+      <c r="I15" s="11">
+        <v>666977</v>
+      </c>
+      <c r="J15" s="11">
         <v>422958</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
+        <v>380356</v>
+      </c>
+      <c r="L15" s="11">
         <v>739837</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>697281</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>501075</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
+        <v>674232</v>
+      </c>
+      <c r="F16" s="17">
+        <v>877087</v>
+      </c>
+      <c r="G16" s="17">
+        <v>502646</v>
+      </c>
+      <c r="H16" s="17">
+        <v>772769</v>
+      </c>
+      <c r="I16" s="17">
+        <v>666977</v>
+      </c>
+      <c r="J16" s="17">
         <v>422958</v>
       </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="K16" s="17">
+        <v>380356</v>
+      </c>
+      <c r="L16" s="17">
         <v>739837</v>
       </c>
-      <c r="H16" s="17">
+      <c r="M16" s="17">
         <v>697281</v>
       </c>
-      <c r="I16" s="17">
+      <c r="N16" s="17">
         <v>501075</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -909,10 +1064,15 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -931,76 +1091,136 @@
       <c r="I18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
         <v>0</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>13</v>
+      <c r="F20" s="15">
+        <v>0</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
+      <c r="H20" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
+        <v>1036781</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1252245</v>
+      </c>
+      <c r="G21" s="17">
+        <v>781911</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1159566</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1000981</v>
+      </c>
+      <c r="J21" s="17">
         <v>634233</v>
       </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="K21" s="17">
+        <v>643848</v>
+      </c>
+      <c r="L21" s="17">
         <v>1090615</v>
       </c>
-      <c r="H21" s="17">
+      <c r="M21" s="17">
         <v>988516</v>
       </c>
-      <c r="I21" s="17">
+      <c r="N21" s="17">
         <v>756828</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1009,8 +1229,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1019,8 +1244,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1029,10 +1259,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1051,8 +1286,23 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1061,10 +1311,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1073,80 +1328,130 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
+        <v>217874</v>
+      </c>
+      <c r="F28" s="11">
+        <v>219036</v>
+      </c>
+      <c r="G28" s="11">
+        <v>314486</v>
+      </c>
+      <c r="H28" s="11">
+        <v>266649</v>
+      </c>
+      <c r="I28" s="11">
+        <v>229908</v>
+      </c>
+      <c r="J28" s="11">
         <v>126672</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="K28" s="11">
+        <v>170518</v>
+      </c>
+      <c r="L28" s="11">
         <v>553354</v>
       </c>
-      <c r="H28" s="11">
+      <c r="M28" s="11">
         <v>443851</v>
       </c>
-      <c r="I28" s="11">
+      <c r="N28" s="11">
         <v>383587</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
+        <v>717444</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1814100</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3112702</v>
+      </c>
+      <c r="H29" s="13">
+        <v>2955533</v>
+      </c>
+      <c r="I29" s="13">
+        <v>2597267</v>
+      </c>
+      <c r="J29" s="13">
         <v>4394809</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="K29" s="13">
+        <v>3742701</v>
+      </c>
+      <c r="L29" s="13">
         <v>3018125</v>
       </c>
-      <c r="H29" s="13">
+      <c r="M29" s="13">
         <v>2973228</v>
       </c>
-      <c r="I29" s="13">
+      <c r="N29" s="13">
         <v>2839699</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
+        <v>935318</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2033136</v>
+      </c>
+      <c r="G30" s="15">
+        <v>3427188</v>
+      </c>
+      <c r="H30" s="15">
+        <v>3222182</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2827175</v>
+      </c>
+      <c r="J30" s="15">
         <v>4521481</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="K30" s="15">
+        <v>3913219</v>
+      </c>
+      <c r="L30" s="15">
         <v>3571479</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>3417079</v>
       </c>
-      <c r="I30" s="15">
+      <c r="N30" s="15">
         <v>3223286</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1155,56 +1460,91 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>24652268</v>
+      </c>
+      <c r="F32" s="11">
+        <v>55357747</v>
+      </c>
+      <c r="G32" s="11">
+        <v>36346499</v>
+      </c>
+      <c r="H32" s="11">
+        <v>51463183</v>
+      </c>
+      <c r="I32" s="11">
+        <v>51339755</v>
+      </c>
+      <c r="J32" s="11">
         <v>41021731</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
+        <v>34320728</v>
+      </c>
+      <c r="L32" s="11">
         <v>65935735</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>54653710</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>43134089</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
+        <v>24652268</v>
+      </c>
+      <c r="F33" s="17">
+        <v>55357747</v>
+      </c>
+      <c r="G33" s="17">
+        <v>36346499</v>
+      </c>
+      <c r="H33" s="17">
+        <v>51463183</v>
+      </c>
+      <c r="I33" s="17">
+        <v>51339755</v>
+      </c>
+      <c r="J33" s="17">
         <v>41021731</v>
       </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
+      <c r="K33" s="17">
+        <v>34320728</v>
+      </c>
+      <c r="L33" s="17">
         <v>65935735</v>
       </c>
-      <c r="H33" s="17">
+      <c r="M33" s="17">
         <v>54653710</v>
       </c>
-      <c r="I33" s="17">
+      <c r="N33" s="17">
         <v>43134089</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1213,10 +1553,15 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1235,78 +1580,138 @@
       <c r="I35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="I36" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>13</v>
+      <c r="F37" s="15">
+        <v>0</v>
       </c>
       <c r="G37" s="15">
         <v>0</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
+      <c r="H37" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
+        <v>25587586</v>
+      </c>
+      <c r="F38" s="17">
+        <v>57390883</v>
+      </c>
+      <c r="G38" s="17">
+        <v>39773687</v>
+      </c>
+      <c r="H38" s="17">
+        <v>54685365</v>
+      </c>
+      <c r="I38" s="17">
+        <v>54166930</v>
+      </c>
+      <c r="J38" s="17">
         <v>45543212</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="K38" s="17">
+        <v>38233947</v>
+      </c>
+      <c r="L38" s="17">
         <v>69507214</v>
       </c>
-      <c r="H38" s="17">
+      <c r="M38" s="17">
         <v>58070789</v>
       </c>
-      <c r="I38" s="17">
+      <c r="N38" s="17">
         <v>46357375</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1315,8 +1720,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1325,8 +1735,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1335,10 +1750,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1357,8 +1777,23 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1367,10 +1802,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1379,58 +1819,93 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>672133</v>
+      </c>
+      <c r="F45" s="11">
+        <v>672133</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1390153</v>
+      </c>
+      <c r="H45" s="11">
+        <v>801222</v>
+      </c>
+      <c r="I45" s="11">
+        <v>801221</v>
+      </c>
+      <c r="J45" s="11">
         <v>801225</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>801220</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>1802750</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>1802748</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>1802748</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
+        <v>18685384</v>
+      </c>
+      <c r="F46" s="13">
+        <v>36815082</v>
+      </c>
+      <c r="G46" s="13">
+        <v>58684829</v>
+      </c>
+      <c r="H46" s="13">
+        <v>54738175</v>
+      </c>
+      <c r="I46" s="13">
+        <v>55172599</v>
+      </c>
+      <c r="J46" s="13">
         <v>82644922</v>
       </c>
-      <c r="F46" s="13">
+      <c r="K46" s="13">
         <v>73865697</v>
       </c>
-      <c r="G46" s="13">
+      <c r="L46" s="13">
         <v>68861999</v>
       </c>
-      <c r="H46" s="13">
+      <c r="M46" s="13">
         <v>66032994</v>
       </c>
-      <c r="I46" s="13">
+      <c r="N46" s="13">
         <v>66079344</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1439,32 +1914,52 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>36563480</v>
+      </c>
+      <c r="F48" s="11">
+        <v>63115457</v>
+      </c>
+      <c r="G48" s="11">
+        <v>72310332</v>
+      </c>
+      <c r="H48" s="11">
+        <v>66595817</v>
+      </c>
+      <c r="I48" s="11">
+        <v>76973801</v>
+      </c>
+      <c r="J48" s="11">
         <v>96987717</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>90233171</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>89122024</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>78381139</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>86083079</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1473,8 +1968,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1483,8 +1983,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1493,10 +1998,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1515,8 +2025,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1525,10 +2050,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1537,80 +2067,130 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>-17287</v>
+      </c>
+      <c r="F55" s="11">
+        <v>-46873</v>
+      </c>
+      <c r="G55" s="11">
+        <v>-22894</v>
+      </c>
+      <c r="H55" s="11">
+        <v>-36680</v>
+      </c>
+      <c r="I55" s="11">
+        <v>-22125</v>
+      </c>
+      <c r="J55" s="11">
         <v>-38102</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>-50020</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>-49050</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>-56139</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>-35357</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>-208138</v>
+      </c>
+      <c r="F56" s="13">
+        <v>-1422614</v>
+      </c>
+      <c r="G56" s="13">
+        <v>-1492512</v>
+      </c>
+      <c r="H56" s="13">
+        <v>-1362087</v>
+      </c>
+      <c r="I56" s="13">
+        <v>-1902081</v>
+      </c>
+      <c r="J56" s="13">
         <v>-3007612</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>-4783268</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>-2465959</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>-2730821</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>-2397434</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>-225425</v>
+      </c>
+      <c r="F57" s="15">
+        <v>-1469487</v>
+      </c>
+      <c r="G57" s="15">
+        <v>-1515406</v>
+      </c>
+      <c r="H57" s="15">
+        <v>-1398767</v>
+      </c>
+      <c r="I57" s="15">
+        <v>-1924206</v>
+      </c>
+      <c r="J57" s="15">
         <v>-3045714</v>
       </c>
-      <c r="F57" s="15">
+      <c r="K57" s="15">
         <v>-4833288</v>
       </c>
-      <c r="G57" s="15">
+      <c r="L57" s="15">
         <v>-2515009</v>
       </c>
-      <c r="H57" s="15">
+      <c r="M57" s="15">
         <v>-2786960</v>
       </c>
-      <c r="I57" s="15">
+      <c r="N57" s="15">
         <v>-2432791</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1619,56 +2199,91 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>-10463631</v>
+      </c>
+      <c r="F59" s="11">
+        <v>-20417079</v>
+      </c>
+      <c r="G59" s="11">
+        <v>-18722915</v>
+      </c>
+      <c r="H59" s="11">
+        <v>-19494368</v>
+      </c>
+      <c r="I59" s="11">
+        <v>-27012566</v>
+      </c>
+      <c r="J59" s="11">
         <v>-29241110</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>-45274404</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>-41626528</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>-42424858</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>-27601229</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
+        <v>-10463631</v>
+      </c>
+      <c r="F60" s="17">
+        <v>-20417079</v>
+      </c>
+      <c r="G60" s="17">
+        <v>-18722915</v>
+      </c>
+      <c r="H60" s="17">
+        <v>-19494368</v>
+      </c>
+      <c r="I60" s="17">
+        <v>-27012566</v>
+      </c>
+      <c r="J60" s="17">
         <v>-29241110</v>
       </c>
-      <c r="F60" s="17">
+      <c r="K60" s="17">
         <v>-45274404</v>
       </c>
-      <c r="G60" s="17">
+      <c r="L60" s="17">
         <v>-41626528</v>
       </c>
-      <c r="H60" s="17">
+      <c r="M60" s="17">
         <v>-42424858</v>
       </c>
-      <c r="I60" s="17">
+      <c r="N60" s="17">
         <v>-27601229</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -1677,10 +2292,15 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -1699,37 +2319,67 @@
       <c r="I62" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="15">
+        <v>0</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0</v>
+      </c>
+      <c r="L62" s="15">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15">
+        <v>0</v>
+      </c>
+      <c r="N62" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C63" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0</v>
+      </c>
+      <c r="G63" s="17">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="I63" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
@@ -1741,36 +2391,66 @@
       <c r="G64" s="15">
         <v>0</v>
       </c>
-      <c r="H64" s="15">
-        <v>0</v>
+      <c r="H64" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I64" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="15">
+        <v>0</v>
+      </c>
+      <c r="K64" s="15">
+        <v>0</v>
+      </c>
+      <c r="L64" s="15">
+        <v>0</v>
+      </c>
+      <c r="M64" s="15">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
+        <v>-10689056</v>
+      </c>
+      <c r="F65" s="17">
+        <v>-21886566</v>
+      </c>
+      <c r="G65" s="17">
+        <v>-20238321</v>
+      </c>
+      <c r="H65" s="17">
+        <v>-20893135</v>
+      </c>
+      <c r="I65" s="17">
+        <v>-28936772</v>
+      </c>
+      <c r="J65" s="17">
         <v>-32286824</v>
       </c>
-      <c r="F65" s="17">
+      <c r="K65" s="17">
         <v>-50107692</v>
       </c>
-      <c r="G65" s="17">
+      <c r="L65" s="17">
         <v>-44141537</v>
       </c>
-      <c r="H65" s="17">
+      <c r="M65" s="17">
         <v>-45211818</v>
       </c>
-      <c r="I65" s="17">
+      <c r="N65" s="17">
         <v>-30034020</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1779,8 +2459,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1789,8 +2474,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1799,10 +2489,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1821,8 +2516,23 @@
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1831,10 +2541,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -1843,80 +2558,130 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>200587</v>
+      </c>
+      <c r="F72" s="11">
+        <v>172163</v>
+      </c>
+      <c r="G72" s="11">
+        <v>291592</v>
+      </c>
+      <c r="H72" s="11">
+        <v>229969</v>
+      </c>
+      <c r="I72" s="11">
+        <v>207783</v>
+      </c>
+      <c r="J72" s="11">
         <v>88570</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>120498</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>504304</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>387712</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>348230</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
+        <v>509306</v>
+      </c>
+      <c r="F73" s="13">
+        <v>391486</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1620190</v>
+      </c>
+      <c r="H73" s="13">
+        <v>1593446</v>
+      </c>
+      <c r="I73" s="13">
+        <v>694176</v>
+      </c>
+      <c r="J73" s="13">
         <v>1387197</v>
       </c>
-      <c r="F73" s="13">
+      <c r="K73" s="13">
         <v>-1040567</v>
       </c>
-      <c r="G73" s="13">
+      <c r="L73" s="13">
         <v>552166</v>
       </c>
-      <c r="H73" s="13">
+      <c r="M73" s="13">
         <v>242407</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>442265</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>709893</v>
+      </c>
+      <c r="F74" s="15">
+        <v>563649</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1911782</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1823415</v>
+      </c>
+      <c r="I74" s="15">
+        <v>901959</v>
+      </c>
+      <c r="J74" s="15">
         <v>1475767</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>-920069</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>1056470</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>630119</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>790495</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -1925,56 +2690,91 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>14188637</v>
+      </c>
+      <c r="F76" s="11">
+        <v>34940668</v>
+      </c>
+      <c r="G76" s="11">
+        <v>17623584</v>
+      </c>
+      <c r="H76" s="11">
+        <v>31968815</v>
+      </c>
+      <c r="I76" s="11">
+        <v>24327189</v>
+      </c>
+      <c r="J76" s="11">
         <v>11780621</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-10953676</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>24309207</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>12228852</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>15532860</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17">
+        <v>14188637</v>
+      </c>
+      <c r="F77" s="17">
+        <v>34940668</v>
+      </c>
+      <c r="G77" s="17">
+        <v>17623584</v>
+      </c>
+      <c r="H77" s="17">
+        <v>31968815</v>
+      </c>
+      <c r="I77" s="17">
+        <v>24327189</v>
+      </c>
+      <c r="J77" s="17">
         <v>11780621</v>
       </c>
-      <c r="F77" s="17">
+      <c r="K77" s="17">
         <v>-10953676</v>
       </c>
-      <c r="G77" s="17">
+      <c r="L77" s="17">
         <v>24309207</v>
       </c>
-      <c r="H77" s="17">
+      <c r="M77" s="17">
         <v>12228852</v>
       </c>
-      <c r="I77" s="17">
+      <c r="N77" s="17">
         <v>15532860</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -1983,10 +2783,15 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2005,26 +2810,56 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
+        <v>14898530</v>
+      </c>
+      <c r="F80" s="17">
+        <v>35504317</v>
+      </c>
+      <c r="G80" s="17">
+        <v>19535366</v>
+      </c>
+      <c r="H80" s="17">
+        <v>33792230</v>
+      </c>
+      <c r="I80" s="17">
+        <v>25229148</v>
+      </c>
+      <c r="J80" s="17">
         <v>13256388</v>
       </c>
-      <c r="F80" s="17">
+      <c r="K80" s="17">
         <v>-11873745</v>
       </c>
-      <c r="G80" s="17">
+      <c r="L80" s="17">
         <v>25365677</v>
       </c>
-      <c r="H80" s="17">
+      <c r="M80" s="17">
         <v>12858971</v>
       </c>
-      <c r="I80" s="17">
+      <c r="N80" s="17">
         <v>16323355</v>
       </c>
     </row>

--- a/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28E6DB-F067-483E-8C8C-55036A52A3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C77B7E-9C02-4666-B400-BFDEC5E40160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -658,12 +658,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,7 +678,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -727,7 +727,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -776,7 +776,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -813,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -828,7 +828,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -854,37 +854,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>324153</v>
+        <v>325882</v>
       </c>
       <c r="F11" s="11">
-        <v>325882</v>
+        <v>226224</v>
       </c>
       <c r="G11" s="11">
-        <v>226224</v>
+        <v>332803</v>
       </c>
       <c r="H11" s="11">
-        <v>332803</v>
+        <v>286947</v>
       </c>
       <c r="I11" s="11">
-        <v>286947</v>
+        <v>158098</v>
       </c>
       <c r="J11" s="11">
-        <v>158098</v>
+        <v>212823</v>
       </c>
       <c r="K11" s="11">
-        <v>212823</v>
+        <v>306950</v>
       </c>
       <c r="L11" s="11">
-        <v>306950</v>
+        <v>246208</v>
       </c>
       <c r="M11" s="11">
-        <v>246208</v>
+        <v>212779</v>
       </c>
       <c r="N11" s="11">
-        <v>212779</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -893,74 +893,74 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>38396</v>
+        <v>49276</v>
       </c>
       <c r="F12" s="13">
-        <v>49276</v>
+        <v>53041</v>
       </c>
       <c r="G12" s="13">
-        <v>53041</v>
+        <v>53994</v>
       </c>
       <c r="H12" s="13">
-        <v>53994</v>
+        <v>47057</v>
       </c>
       <c r="I12" s="13">
-        <v>47057</v>
+        <v>53177</v>
       </c>
       <c r="J12" s="13">
-        <v>53177</v>
+        <v>50669</v>
       </c>
       <c r="K12" s="13">
-        <v>50669</v>
+        <v>43829</v>
       </c>
       <c r="L12" s="13">
-        <v>43829</v>
+        <v>45026</v>
       </c>
       <c r="M12" s="13">
-        <v>45026</v>
+        <v>42974</v>
       </c>
       <c r="N12" s="13">
-        <v>42974</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54860</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
-        <v>362549</v>
+        <v>375158</v>
       </c>
       <c r="F13" s="15">
-        <v>375158</v>
+        <v>279265</v>
       </c>
       <c r="G13" s="15">
-        <v>279265</v>
+        <v>386797</v>
       </c>
       <c r="H13" s="15">
-        <v>386797</v>
+        <v>334004</v>
       </c>
       <c r="I13" s="15">
-        <v>334004</v>
+        <v>211275</v>
       </c>
       <c r="J13" s="15">
-        <v>211275</v>
+        <v>263492</v>
       </c>
       <c r="K13" s="15">
-        <v>263492</v>
+        <v>350779</v>
       </c>
       <c r="L13" s="15">
-        <v>350779</v>
+        <v>291234</v>
       </c>
       <c r="M13" s="15">
-        <v>291234</v>
+        <v>255753</v>
       </c>
       <c r="N13" s="15">
-        <v>255753</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>197006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -986,74 +986,74 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>674232</v>
+        <v>877087</v>
       </c>
       <c r="F15" s="11">
-        <v>877087</v>
+        <v>502646</v>
       </c>
       <c r="G15" s="11">
-        <v>502646</v>
+        <v>772769</v>
       </c>
       <c r="H15" s="11">
-        <v>772769</v>
+        <v>666977</v>
       </c>
       <c r="I15" s="11">
-        <v>666977</v>
+        <v>422958</v>
       </c>
       <c r="J15" s="11">
-        <v>422958</v>
+        <v>380356</v>
       </c>
       <c r="K15" s="11">
-        <v>380356</v>
+        <v>739837</v>
       </c>
       <c r="L15" s="11">
-        <v>739837</v>
+        <v>697281</v>
       </c>
       <c r="M15" s="11">
-        <v>697281</v>
+        <v>501075</v>
       </c>
       <c r="N15" s="11">
-        <v>501075</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>335257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
-        <v>674232</v>
+        <v>877087</v>
       </c>
       <c r="F16" s="17">
-        <v>877087</v>
+        <v>502646</v>
       </c>
       <c r="G16" s="17">
-        <v>502646</v>
+        <v>772769</v>
       </c>
       <c r="H16" s="17">
-        <v>772769</v>
+        <v>666977</v>
       </c>
       <c r="I16" s="17">
-        <v>666977</v>
+        <v>422958</v>
       </c>
       <c r="J16" s="17">
-        <v>422958</v>
+        <v>380356</v>
       </c>
       <c r="K16" s="17">
-        <v>380356</v>
+        <v>739837</v>
       </c>
       <c r="L16" s="17">
-        <v>739837</v>
+        <v>697281</v>
       </c>
       <c r="M16" s="17">
-        <v>697281</v>
+        <v>501075</v>
       </c>
       <c r="N16" s="17">
-        <v>501075</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>335257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
@@ -1121,8 +1121,8 @@
       <c r="F19" s="17">
         <v>0</v>
       </c>
-      <c r="G19" s="17">
-        <v>0</v>
+      <c r="G19" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>26</v>
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
@@ -1158,12 +1158,12 @@
       <c r="F20" s="15">
         <v>0</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
       <c r="I20" s="15">
         <v>0</v>
       </c>
@@ -1183,44 +1183,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>1036781</v>
+        <v>1252245</v>
       </c>
       <c r="F21" s="17">
-        <v>1252245</v>
+        <v>781911</v>
       </c>
       <c r="G21" s="17">
-        <v>781911</v>
+        <v>1159566</v>
       </c>
       <c r="H21" s="17">
-        <v>1159566</v>
+        <v>1000981</v>
       </c>
       <c r="I21" s="17">
-        <v>1000981</v>
+        <v>634233</v>
       </c>
       <c r="J21" s="17">
-        <v>634233</v>
+        <v>643848</v>
       </c>
       <c r="K21" s="17">
-        <v>643848</v>
+        <v>1090615</v>
       </c>
       <c r="L21" s="17">
-        <v>1090615</v>
+        <v>988516</v>
       </c>
       <c r="M21" s="17">
-        <v>988516</v>
+        <v>756828</v>
       </c>
       <c r="N21" s="17">
-        <v>756828</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>532263</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1235,7 +1235,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1250,7 +1250,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1265,7 +1265,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1317,7 +1317,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
@@ -1343,37 +1343,37 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>217874</v>
+        <v>219036</v>
       </c>
       <c r="F28" s="11">
-        <v>219036</v>
+        <v>314486</v>
       </c>
       <c r="G28" s="11">
-        <v>314486</v>
+        <v>266649</v>
       </c>
       <c r="H28" s="11">
-        <v>266649</v>
+        <v>229908</v>
       </c>
       <c r="I28" s="11">
-        <v>229908</v>
+        <v>126672</v>
       </c>
       <c r="J28" s="11">
-        <v>126672</v>
+        <v>170518</v>
       </c>
       <c r="K28" s="11">
-        <v>170518</v>
+        <v>553354</v>
       </c>
       <c r="L28" s="11">
-        <v>553354</v>
+        <v>443851</v>
       </c>
       <c r="M28" s="11">
-        <v>443851</v>
+        <v>383587</v>
       </c>
       <c r="N28" s="11">
-        <v>383587</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>256254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1382,74 +1382,74 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>717444</v>
+        <v>1814100</v>
       </c>
       <c r="F29" s="13">
-        <v>1814100</v>
+        <v>3112702</v>
       </c>
       <c r="G29" s="13">
-        <v>3112702</v>
+        <v>2955533</v>
       </c>
       <c r="H29" s="13">
-        <v>2955533</v>
+        <v>2597267</v>
       </c>
       <c r="I29" s="13">
-        <v>2597267</v>
+        <v>4394809</v>
       </c>
       <c r="J29" s="13">
-        <v>4394809</v>
+        <v>3742701</v>
       </c>
       <c r="K29" s="13">
-        <v>3742701</v>
+        <v>3018125</v>
       </c>
       <c r="L29" s="13">
-        <v>3018125</v>
+        <v>2973228</v>
       </c>
       <c r="M29" s="13">
-        <v>2973228</v>
+        <v>2839699</v>
       </c>
       <c r="N29" s="13">
-        <v>2839699</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4537672</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>935318</v>
+        <v>2033136</v>
       </c>
       <c r="F30" s="15">
-        <v>2033136</v>
+        <v>3427188</v>
       </c>
       <c r="G30" s="15">
-        <v>3427188</v>
+        <v>3222182</v>
       </c>
       <c r="H30" s="15">
-        <v>3222182</v>
+        <v>2827175</v>
       </c>
       <c r="I30" s="15">
-        <v>2827175</v>
+        <v>4521481</v>
       </c>
       <c r="J30" s="15">
-        <v>4521481</v>
+        <v>3913219</v>
       </c>
       <c r="K30" s="15">
-        <v>3913219</v>
+        <v>3571479</v>
       </c>
       <c r="L30" s="15">
-        <v>3571479</v>
+        <v>3417079</v>
       </c>
       <c r="M30" s="15">
-        <v>3417079</v>
+        <v>3223286</v>
       </c>
       <c r="N30" s="15">
-        <v>3223286</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4793926</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
@@ -1475,74 +1475,74 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>24652268</v>
+        <v>55357747</v>
       </c>
       <c r="F32" s="11">
-        <v>55357747</v>
+        <v>36346499</v>
       </c>
       <c r="G32" s="11">
-        <v>36346499</v>
+        <v>51463183</v>
       </c>
       <c r="H32" s="11">
-        <v>51463183</v>
+        <v>51339755</v>
       </c>
       <c r="I32" s="11">
-        <v>51339755</v>
+        <v>41021731</v>
       </c>
       <c r="J32" s="11">
-        <v>41021731</v>
+        <v>34320728</v>
       </c>
       <c r="K32" s="11">
-        <v>34320728</v>
+        <v>65935735</v>
       </c>
       <c r="L32" s="11">
-        <v>65935735</v>
+        <v>54653710</v>
       </c>
       <c r="M32" s="11">
-        <v>54653710</v>
+        <v>43134089</v>
       </c>
       <c r="N32" s="11">
-        <v>43134089</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35484302</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>24652268</v>
+        <v>55357747</v>
       </c>
       <c r="F33" s="17">
-        <v>55357747</v>
+        <v>36346499</v>
       </c>
       <c r="G33" s="17">
-        <v>36346499</v>
+        <v>51463183</v>
       </c>
       <c r="H33" s="17">
-        <v>51463183</v>
+        <v>51339755</v>
       </c>
       <c r="I33" s="17">
-        <v>51339755</v>
+        <v>41021731</v>
       </c>
       <c r="J33" s="17">
-        <v>41021731</v>
+        <v>34320728</v>
       </c>
       <c r="K33" s="17">
-        <v>34320728</v>
+        <v>65935735</v>
       </c>
       <c r="L33" s="17">
-        <v>65935735</v>
+        <v>54653710</v>
       </c>
       <c r="M33" s="17">
-        <v>54653710</v>
+        <v>43134089</v>
       </c>
       <c r="N33" s="17">
-        <v>43134089</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35484302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
@@ -1610,8 +1610,8 @@
       <c r="F36" s="17">
         <v>0</v>
       </c>
-      <c r="G36" s="17">
-        <v>0</v>
+      <c r="G36" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>26</v>
@@ -1635,7 +1635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>27</v>
       </c>
@@ -1649,12 +1649,12 @@
       <c r="F37" s="15">
         <v>0</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="G37" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
       <c r="I37" s="15">
         <v>0</v>
       </c>
@@ -1674,44 +1674,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
-        <v>25587586</v>
+        <v>57390883</v>
       </c>
       <c r="F38" s="17">
-        <v>57390883</v>
+        <v>39773687</v>
       </c>
       <c r="G38" s="17">
-        <v>39773687</v>
+        <v>54685365</v>
       </c>
       <c r="H38" s="17">
-        <v>54685365</v>
+        <v>54166930</v>
       </c>
       <c r="I38" s="17">
-        <v>54166930</v>
+        <v>45543212</v>
       </c>
       <c r="J38" s="17">
-        <v>45543212</v>
+        <v>38233947</v>
       </c>
       <c r="K38" s="17">
-        <v>38233947</v>
+        <v>69507214</v>
       </c>
       <c r="L38" s="17">
-        <v>69507214</v>
+        <v>58070789</v>
       </c>
       <c r="M38" s="17">
-        <v>58070789</v>
+        <v>46357375</v>
       </c>
       <c r="N38" s="17">
-        <v>46357375</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40278228</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1726,7 +1726,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1756,7 +1756,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1808,7 +1808,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1837,34 +1837,34 @@
         <v>672133</v>
       </c>
       <c r="F45" s="11">
-        <v>672133</v>
+        <v>1390153</v>
       </c>
       <c r="G45" s="11">
-        <v>1390153</v>
+        <v>801222</v>
       </c>
       <c r="H45" s="11">
-        <v>801222</v>
+        <v>801221</v>
       </c>
       <c r="I45" s="11">
-        <v>801221</v>
+        <v>801225</v>
       </c>
       <c r="J45" s="11">
-        <v>801225</v>
+        <v>801220</v>
       </c>
       <c r="K45" s="11">
-        <v>801220</v>
+        <v>1802750</v>
       </c>
       <c r="L45" s="11">
-        <v>1802750</v>
+        <v>1802748</v>
       </c>
       <c r="M45" s="11">
         <v>1802748</v>
       </c>
       <c r="N45" s="11">
-        <v>1802748</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1802752</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
@@ -1873,37 +1873,37 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>18685384</v>
+        <v>36815082</v>
       </c>
       <c r="F46" s="13">
-        <v>36815082</v>
+        <v>58684829</v>
       </c>
       <c r="G46" s="13">
-        <v>58684829</v>
+        <v>54738175</v>
       </c>
       <c r="H46" s="13">
-        <v>54738175</v>
+        <v>55172599</v>
       </c>
       <c r="I46" s="13">
-        <v>55172599</v>
+        <v>82644922</v>
       </c>
       <c r="J46" s="13">
-        <v>82644922</v>
+        <v>73865697</v>
       </c>
       <c r="K46" s="13">
-        <v>73865697</v>
+        <v>68861999</v>
       </c>
       <c r="L46" s="13">
-        <v>68861999</v>
+        <v>66032994</v>
       </c>
       <c r="M46" s="13">
-        <v>66032994</v>
+        <v>66079344</v>
       </c>
       <c r="N46" s="13">
-        <v>66079344</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82713792</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>37</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
@@ -1929,37 +1929,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>36563480</v>
+        <v>63115457</v>
       </c>
       <c r="F48" s="11">
-        <v>63115457</v>
+        <v>72310332</v>
       </c>
       <c r="G48" s="11">
-        <v>72310332</v>
+        <v>66595817</v>
       </c>
       <c r="H48" s="11">
-        <v>66595817</v>
+        <v>76973801</v>
       </c>
       <c r="I48" s="11">
-        <v>76973801</v>
+        <v>96987717</v>
       </c>
       <c r="J48" s="11">
-        <v>96987717</v>
+        <v>90233171</v>
       </c>
       <c r="K48" s="11">
-        <v>90233171</v>
+        <v>89122024</v>
       </c>
       <c r="L48" s="11">
-        <v>89122024</v>
+        <v>78381139</v>
       </c>
       <c r="M48" s="11">
-        <v>78381139</v>
+        <v>86083079</v>
       </c>
       <c r="N48" s="11">
-        <v>86083079</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105842129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1974,7 +1974,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1989,7 +1989,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>38</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2056,7 +2056,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2082,37 +2082,37 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>-17287</v>
+        <v>-46873</v>
       </c>
       <c r="F55" s="11">
-        <v>-46873</v>
+        <v>-22894</v>
       </c>
       <c r="G55" s="11">
-        <v>-22894</v>
+        <v>-36680</v>
       </c>
       <c r="H55" s="11">
-        <v>-36680</v>
+        <v>-22125</v>
       </c>
       <c r="I55" s="11">
-        <v>-22125</v>
+        <v>-38102</v>
       </c>
       <c r="J55" s="11">
-        <v>-38102</v>
+        <v>-50020</v>
       </c>
       <c r="K55" s="11">
-        <v>-50020</v>
+        <v>-49050</v>
       </c>
       <c r="L55" s="11">
-        <v>-49050</v>
+        <v>-56139</v>
       </c>
       <c r="M55" s="11">
-        <v>-56139</v>
+        <v>-35357</v>
       </c>
       <c r="N55" s="11">
-        <v>-35357</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-56624</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -2121,74 +2121,74 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>-208138</v>
+        <v>-1422614</v>
       </c>
       <c r="F56" s="13">
-        <v>-1422614</v>
+        <v>-1492512</v>
       </c>
       <c r="G56" s="13">
-        <v>-1492512</v>
+        <v>-1362087</v>
       </c>
       <c r="H56" s="13">
-        <v>-1362087</v>
+        <v>-1902081</v>
       </c>
       <c r="I56" s="13">
-        <v>-1902081</v>
+        <v>-3007612</v>
       </c>
       <c r="J56" s="13">
-        <v>-3007612</v>
+        <v>-4783268</v>
       </c>
       <c r="K56" s="13">
-        <v>-4783268</v>
+        <v>-2465959</v>
       </c>
       <c r="L56" s="13">
-        <v>-2465959</v>
+        <v>-2730821</v>
       </c>
       <c r="M56" s="13">
-        <v>-2730821</v>
+        <v>-2397434</v>
       </c>
       <c r="N56" s="13">
-        <v>-2397434</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3572606</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>-225425</v>
+        <v>-1469487</v>
       </c>
       <c r="F57" s="15">
-        <v>-1469487</v>
+        <v>-1515406</v>
       </c>
       <c r="G57" s="15">
-        <v>-1515406</v>
+        <v>-1398767</v>
       </c>
       <c r="H57" s="15">
-        <v>-1398767</v>
+        <v>-1924206</v>
       </c>
       <c r="I57" s="15">
-        <v>-1924206</v>
+        <v>-3045714</v>
       </c>
       <c r="J57" s="15">
-        <v>-3045714</v>
+        <v>-4833288</v>
       </c>
       <c r="K57" s="15">
-        <v>-4833288</v>
+        <v>-2515009</v>
       </c>
       <c r="L57" s="15">
-        <v>-2515009</v>
+        <v>-2786960</v>
       </c>
       <c r="M57" s="15">
-        <v>-2786960</v>
+        <v>-2432791</v>
       </c>
       <c r="N57" s="15">
-        <v>-2432791</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3629230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>18</v>
       </c>
@@ -2214,74 +2214,74 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>-10463631</v>
+        <v>-20417079</v>
       </c>
       <c r="F59" s="11">
-        <v>-20417079</v>
+        <v>-18722915</v>
       </c>
       <c r="G59" s="11">
-        <v>-18722915</v>
+        <v>-19494368</v>
       </c>
       <c r="H59" s="11">
-        <v>-19494368</v>
+        <v>-27012566</v>
       </c>
       <c r="I59" s="11">
-        <v>-27012566</v>
+        <v>-29241110</v>
       </c>
       <c r="J59" s="11">
-        <v>-29241110</v>
+        <v>-45274404</v>
       </c>
       <c r="K59" s="11">
-        <v>-45274404</v>
+        <v>-41626528</v>
       </c>
       <c r="L59" s="11">
-        <v>-41626528</v>
+        <v>-42424858</v>
       </c>
       <c r="M59" s="11">
-        <v>-42424858</v>
+        <v>-27601229</v>
       </c>
       <c r="N59" s="11">
-        <v>-27601229</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-24334005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
-        <v>-10463631</v>
+        <v>-20417079</v>
       </c>
       <c r="F60" s="17">
-        <v>-20417079</v>
+        <v>-18722915</v>
       </c>
       <c r="G60" s="17">
-        <v>-18722915</v>
+        <v>-19494368</v>
       </c>
       <c r="H60" s="17">
-        <v>-19494368</v>
+        <v>-27012566</v>
       </c>
       <c r="I60" s="17">
-        <v>-27012566</v>
+        <v>-29241110</v>
       </c>
       <c r="J60" s="17">
-        <v>-29241110</v>
+        <v>-45274404</v>
       </c>
       <c r="K60" s="17">
-        <v>-45274404</v>
+        <v>-41626528</v>
       </c>
       <c r="L60" s="17">
-        <v>-41626528</v>
+        <v>-42424858</v>
       </c>
       <c r="M60" s="17">
-        <v>-42424858</v>
+        <v>-27601229</v>
       </c>
       <c r="N60" s="17">
-        <v>-27601229</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-24334005</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>44</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2349,8 @@
       <c r="F63" s="17">
         <v>0</v>
       </c>
-      <c r="G63" s="17">
-        <v>0</v>
+      <c r="G63" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>26</v>
@@ -2374,7 +2374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>27</v>
       </c>
@@ -2388,12 +2388,12 @@
       <c r="F64" s="15">
         <v>0</v>
       </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15" t="s">
+      <c r="G64" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
       <c r="I64" s="15">
         <v>0</v>
       </c>
@@ -2413,44 +2413,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
-        <v>-10689056</v>
+        <v>-21886566</v>
       </c>
       <c r="F65" s="17">
-        <v>-21886566</v>
+        <v>-20238321</v>
       </c>
       <c r="G65" s="17">
-        <v>-20238321</v>
+        <v>-20893135</v>
       </c>
       <c r="H65" s="17">
-        <v>-20893135</v>
+        <v>-28936772</v>
       </c>
       <c r="I65" s="17">
-        <v>-28936772</v>
+        <v>-32286824</v>
       </c>
       <c r="J65" s="17">
-        <v>-32286824</v>
+        <v>-50107692</v>
       </c>
       <c r="K65" s="17">
-        <v>-50107692</v>
+        <v>-44141537</v>
       </c>
       <c r="L65" s="17">
-        <v>-44141537</v>
+        <v>-45211818</v>
       </c>
       <c r="M65" s="17">
-        <v>-45211818</v>
+        <v>-30034020</v>
       </c>
       <c r="N65" s="17">
-        <v>-30034020</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27963235</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2465,7 +2465,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2480,7 +2480,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2495,7 +2495,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2547,7 +2547,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
@@ -2573,37 +2573,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>200587</v>
+        <v>172163</v>
       </c>
       <c r="F72" s="11">
-        <v>172163</v>
+        <v>291592</v>
       </c>
       <c r="G72" s="11">
-        <v>291592</v>
+        <v>229969</v>
       </c>
       <c r="H72" s="11">
-        <v>229969</v>
+        <v>207783</v>
       </c>
       <c r="I72" s="11">
-        <v>207783</v>
+        <v>88570</v>
       </c>
       <c r="J72" s="11">
-        <v>88570</v>
+        <v>120498</v>
       </c>
       <c r="K72" s="11">
-        <v>120498</v>
+        <v>504304</v>
       </c>
       <c r="L72" s="11">
-        <v>504304</v>
+        <v>387712</v>
       </c>
       <c r="M72" s="11">
-        <v>387712</v>
+        <v>348230</v>
       </c>
       <c r="N72" s="11">
-        <v>348230</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>199630</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>18</v>
       </c>
@@ -2612,74 +2612,74 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>509306</v>
+        <v>391486</v>
       </c>
       <c r="F73" s="13">
-        <v>391486</v>
+        <v>1620190</v>
       </c>
       <c r="G73" s="13">
-        <v>1620190</v>
+        <v>1593446</v>
       </c>
       <c r="H73" s="13">
-        <v>1593446</v>
+        <v>694176</v>
       </c>
       <c r="I73" s="13">
-        <v>694176</v>
+        <v>1387197</v>
       </c>
       <c r="J73" s="13">
-        <v>1387197</v>
+        <v>-1040567</v>
       </c>
       <c r="K73" s="13">
-        <v>-1040567</v>
+        <v>552166</v>
       </c>
       <c r="L73" s="13">
-        <v>552166</v>
+        <v>242407</v>
       </c>
       <c r="M73" s="13">
-        <v>242407</v>
+        <v>442265</v>
       </c>
       <c r="N73" s="13">
-        <v>442265</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>965066</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>709893</v>
+        <v>563649</v>
       </c>
       <c r="F74" s="15">
-        <v>563649</v>
+        <v>1911782</v>
       </c>
       <c r="G74" s="15">
-        <v>1911782</v>
+        <v>1823415</v>
       </c>
       <c r="H74" s="15">
-        <v>1823415</v>
+        <v>901959</v>
       </c>
       <c r="I74" s="15">
-        <v>901959</v>
+        <v>1475767</v>
       </c>
       <c r="J74" s="15">
-        <v>1475767</v>
+        <v>-920069</v>
       </c>
       <c r="K74" s="15">
-        <v>-920069</v>
+        <v>1056470</v>
       </c>
       <c r="L74" s="15">
-        <v>1056470</v>
+        <v>630119</v>
       </c>
       <c r="M74" s="15">
-        <v>630119</v>
+        <v>790495</v>
       </c>
       <c r="N74" s="15">
-        <v>790495</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1164696</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>18</v>
       </c>
@@ -2705,74 +2705,74 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>14188637</v>
+        <v>34940668</v>
       </c>
       <c r="F76" s="11">
-        <v>34940668</v>
+        <v>17623584</v>
       </c>
       <c r="G76" s="11">
-        <v>17623584</v>
+        <v>31968815</v>
       </c>
       <c r="H76" s="11">
-        <v>31968815</v>
+        <v>24327189</v>
       </c>
       <c r="I76" s="11">
-        <v>24327189</v>
+        <v>11780621</v>
       </c>
       <c r="J76" s="11">
-        <v>11780621</v>
+        <v>-10953676</v>
       </c>
       <c r="K76" s="11">
-        <v>-10953676</v>
+        <v>24309207</v>
       </c>
       <c r="L76" s="11">
-        <v>24309207</v>
+        <v>12228852</v>
       </c>
       <c r="M76" s="11">
-        <v>12228852</v>
+        <v>15532860</v>
       </c>
       <c r="N76" s="11">
-        <v>15532860</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11150297</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17">
-        <v>14188637</v>
+        <v>34940668</v>
       </c>
       <c r="F77" s="17">
-        <v>34940668</v>
+        <v>17623584</v>
       </c>
       <c r="G77" s="17">
-        <v>17623584</v>
+        <v>31968815</v>
       </c>
       <c r="H77" s="17">
-        <v>31968815</v>
+        <v>24327189</v>
       </c>
       <c r="I77" s="17">
-        <v>24327189</v>
+        <v>11780621</v>
       </c>
       <c r="J77" s="17">
-        <v>11780621</v>
+        <v>-10953676</v>
       </c>
       <c r="K77" s="17">
-        <v>-10953676</v>
+        <v>24309207</v>
       </c>
       <c r="L77" s="17">
-        <v>24309207</v>
+        <v>12228852</v>
       </c>
       <c r="M77" s="17">
-        <v>12228852</v>
+        <v>15532860</v>
       </c>
       <c r="N77" s="17">
-        <v>15532860</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11150297</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>50</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>51</v>
       </c>
@@ -2826,41 +2826,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>14898530</v>
+        <v>35504317</v>
       </c>
       <c r="F80" s="17">
-        <v>35504317</v>
+        <v>19535366</v>
       </c>
       <c r="G80" s="17">
-        <v>19535366</v>
+        <v>33792230</v>
       </c>
       <c r="H80" s="17">
-        <v>33792230</v>
+        <v>25229148</v>
       </c>
       <c r="I80" s="17">
-        <v>25229148</v>
+        <v>13256388</v>
       </c>
       <c r="J80" s="17">
-        <v>13256388</v>
+        <v>-11873745</v>
       </c>
       <c r="K80" s="17">
-        <v>-11873745</v>
+        <v>25365677</v>
       </c>
       <c r="L80" s="17">
-        <v>25365677</v>
+        <v>12858971</v>
       </c>
       <c r="M80" s="17">
-        <v>12858971</v>
+        <v>16323355</v>
       </c>
       <c r="N80" s="17">
-        <v>16323355</v>
+        <v>12314993</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D877822-290E-4C04-9EFF-AE7B59259820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFCE9C4-792F-41C9-B92A-316675E619DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,33 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,6 +94,9 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -94,16 +124,16 @@
     <t>جمع فروش خدمات</t>
   </si>
   <si>
+    <t>سایر / تخفیفات</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>برگشت از فروش</t>
   </si>
   <si>
     <t>ریال</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>سایر / تخفیفات</t>
   </si>
   <si>
     <t>جمع</t>
@@ -654,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N87"/>
+  <dimension ref="B1:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,8 +707,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,8 +734,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -711,8 +761,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -726,8 +786,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -743,8 +813,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -760,8 +840,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +865,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -812,8 +912,38 @@
       <c r="N8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -827,8 +957,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -842,10 +982,20 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -859,125 +1009,225 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>46992</v>
+      </c>
+      <c r="F12" s="9">
+        <v>46305</v>
+      </c>
+      <c r="G12" s="9">
+        <v>39135</v>
+      </c>
+      <c r="H12" s="9">
+        <v>39663</v>
+      </c>
+      <c r="I12" s="9">
+        <v>38699</v>
+      </c>
+      <c r="J12" s="9">
+        <v>46257</v>
+      </c>
+      <c r="K12" s="9">
+        <v>34180</v>
+      </c>
+      <c r="L12" s="9">
+        <v>26731</v>
+      </c>
+      <c r="M12" s="9">
+        <v>38396</v>
+      </c>
+      <c r="N12" s="9">
         <v>49276</v>
       </c>
-      <c r="F12" s="9">
+      <c r="O12" s="9">
         <v>53041</v>
       </c>
-      <c r="G12" s="9">
+      <c r="P12" s="9">
         <v>53994</v>
       </c>
-      <c r="H12" s="9">
+      <c r="Q12" s="9">
         <v>47057</v>
       </c>
-      <c r="I12" s="9">
+      <c r="R12" s="9">
         <v>53177</v>
       </c>
-      <c r="J12" s="9">
+      <c r="S12" s="9">
         <v>50669</v>
       </c>
-      <c r="K12" s="9">
+      <c r="T12" s="9">
         <v>43829</v>
       </c>
-      <c r="L12" s="9">
-        <v>45026</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="U12" s="9">
+        <v>45027</v>
+      </c>
+      <c r="V12" s="9">
         <v>42974</v>
       </c>
-      <c r="N12" s="9">
+      <c r="W12" s="9">
         <v>54860</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X12" s="9">
+        <v>48699</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>569041</v>
+      </c>
+      <c r="F13" s="13">
+        <v>627137</v>
+      </c>
+      <c r="G13" s="13">
+        <v>338446</v>
+      </c>
+      <c r="H13" s="13">
+        <v>305094</v>
+      </c>
+      <c r="I13" s="13">
+        <v>389275</v>
+      </c>
+      <c r="J13" s="13">
+        <v>336703</v>
+      </c>
+      <c r="K13" s="13">
+        <v>183988</v>
+      </c>
+      <c r="L13" s="13">
+        <v>382015</v>
+      </c>
+      <c r="M13" s="13">
+        <v>324153</v>
+      </c>
+      <c r="N13" s="13">
         <v>325882</v>
       </c>
-      <c r="F13" s="13">
+      <c r="O13" s="13">
         <v>226224</v>
       </c>
-      <c r="G13" s="13">
+      <c r="P13" s="13">
         <v>332803</v>
       </c>
-      <c r="H13" s="13">
+      <c r="Q13" s="13">
         <v>286947</v>
       </c>
-      <c r="I13" s="13">
+      <c r="R13" s="13">
         <v>158098</v>
       </c>
-      <c r="J13" s="13">
+      <c r="S13" s="13">
         <v>212823</v>
       </c>
-      <c r="K13" s="13">
+      <c r="T13" s="13">
         <v>306950</v>
       </c>
-      <c r="L13" s="13">
+      <c r="U13" s="13">
         <v>246208</v>
       </c>
-      <c r="M13" s="13">
+      <c r="V13" s="13">
         <v>212779</v>
       </c>
-      <c r="N13" s="13">
+      <c r="W13" s="13">
         <v>142146</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X13" s="13">
+        <v>230686</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>616033</v>
+      </c>
+      <c r="F14" s="15">
+        <v>673442</v>
+      </c>
+      <c r="G14" s="15">
+        <v>377581</v>
+      </c>
+      <c r="H14" s="15">
+        <v>344757</v>
+      </c>
+      <c r="I14" s="15">
+        <v>427974</v>
+      </c>
+      <c r="J14" s="15">
+        <v>382960</v>
+      </c>
+      <c r="K14" s="15">
+        <v>218168</v>
+      </c>
+      <c r="L14" s="15">
+        <v>408746</v>
+      </c>
+      <c r="M14" s="15">
+        <v>362549</v>
+      </c>
+      <c r="N14" s="15">
         <v>375158</v>
       </c>
-      <c r="F14" s="15">
+      <c r="O14" s="15">
         <v>279265</v>
       </c>
-      <c r="G14" s="15">
+      <c r="P14" s="15">
         <v>386797</v>
       </c>
-      <c r="H14" s="15">
+      <c r="Q14" s="15">
         <v>334004</v>
       </c>
-      <c r="I14" s="15">
+      <c r="R14" s="15">
         <v>211275</v>
       </c>
-      <c r="J14" s="15">
+      <c r="S14" s="15">
         <v>263492</v>
       </c>
-      <c r="K14" s="15">
+      <c r="T14" s="15">
         <v>350779</v>
       </c>
-      <c r="L14" s="15">
-        <v>291234</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
+        <v>291235</v>
+      </c>
+      <c r="V14" s="15">
         <v>255753</v>
       </c>
-      <c r="N14" s="15">
+      <c r="W14" s="15">
         <v>197006</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X14" s="15">
+        <v>279385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -991,86 +1241,156 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>680242</v>
+      </c>
+      <c r="F16" s="9">
+        <v>846846</v>
+      </c>
+      <c r="G16" s="9">
+        <v>600715</v>
+      </c>
+      <c r="H16" s="9">
+        <v>731110</v>
+      </c>
+      <c r="I16" s="9">
+        <v>705729</v>
+      </c>
+      <c r="J16" s="9">
+        <v>859005</v>
+      </c>
+      <c r="K16" s="9">
+        <v>363960</v>
+      </c>
+      <c r="L16" s="9">
+        <v>794013</v>
+      </c>
+      <c r="M16" s="9">
+        <v>674232</v>
+      </c>
+      <c r="N16" s="9">
         <v>877087</v>
       </c>
-      <c r="F16" s="9">
+      <c r="O16" s="9">
         <v>502646</v>
       </c>
-      <c r="G16" s="9">
+      <c r="P16" s="9">
         <v>772769</v>
       </c>
-      <c r="H16" s="9">
+      <c r="Q16" s="9">
         <v>666977</v>
       </c>
-      <c r="I16" s="9">
+      <c r="R16" s="9">
         <v>422958</v>
       </c>
-      <c r="J16" s="9">
+      <c r="S16" s="9">
         <v>380356</v>
       </c>
-      <c r="K16" s="9">
+      <c r="T16" s="9">
         <v>739837</v>
       </c>
-      <c r="L16" s="9">
+      <c r="U16" s="9">
         <v>697281</v>
       </c>
-      <c r="M16" s="9">
+      <c r="V16" s="9">
         <v>501075</v>
       </c>
-      <c r="N16" s="9">
+      <c r="W16" s="9">
         <v>335257</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X16" s="9">
+        <v>600344</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
+        <v>680242</v>
+      </c>
+      <c r="F17" s="17">
+        <v>846846</v>
+      </c>
+      <c r="G17" s="17">
+        <v>600715</v>
+      </c>
+      <c r="H17" s="17">
+        <v>731110</v>
+      </c>
+      <c r="I17" s="17">
+        <v>705729</v>
+      </c>
+      <c r="J17" s="17">
+        <v>859005</v>
+      </c>
+      <c r="K17" s="17">
+        <v>363960</v>
+      </c>
+      <c r="L17" s="17">
+        <v>794013</v>
+      </c>
+      <c r="M17" s="17">
+        <v>674232</v>
+      </c>
+      <c r="N17" s="17">
         <v>877087</v>
       </c>
-      <c r="F17" s="17">
+      <c r="O17" s="17">
         <v>502646</v>
       </c>
-      <c r="G17" s="17">
+      <c r="P17" s="17">
         <v>772769</v>
       </c>
-      <c r="H17" s="17">
+      <c r="Q17" s="17">
         <v>666977</v>
       </c>
-      <c r="I17" s="17">
+      <c r="R17" s="17">
         <v>422958</v>
       </c>
-      <c r="J17" s="17">
+      <c r="S17" s="17">
         <v>380356</v>
       </c>
-      <c r="K17" s="17">
+      <c r="T17" s="17">
         <v>739837</v>
       </c>
-      <c r="L17" s="17">
+      <c r="U17" s="17">
         <v>697281</v>
       </c>
-      <c r="M17" s="17">
+      <c r="V17" s="17">
         <v>501075</v>
       </c>
-      <c r="N17" s="17">
+      <c r="W17" s="17">
         <v>335257</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X17" s="17">
+        <v>600344</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1084,10 +1404,20 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1121,14 +1451,42 @@
       <c r="N19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
         <v>0</v>
@@ -1136,36 +1494,68 @@
       <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
         <v>0</v>
@@ -1173,8 +1563,8 @@
       <c r="F21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>26</v>
+      <c r="G21" s="15">
+        <v>0</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -1197,45 +1587,105 @@
       <c r="N21" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="15">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
+        <v>1296275</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1520288</v>
+      </c>
+      <c r="G22" s="17">
+        <v>978296</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1075867</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1133703</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1241965</v>
+      </c>
+      <c r="K22" s="17">
+        <v>582128</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1202759</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1036781</v>
+      </c>
+      <c r="N22" s="17">
         <v>1252245</v>
       </c>
-      <c r="F22" s="17">
+      <c r="O22" s="17">
         <v>781911</v>
       </c>
-      <c r="G22" s="17">
+      <c r="P22" s="17">
         <v>1159566</v>
       </c>
-      <c r="H22" s="17">
+      <c r="Q22" s="17">
         <v>1000981</v>
       </c>
-      <c r="I22" s="17">
+      <c r="R22" s="17">
         <v>634233</v>
       </c>
-      <c r="J22" s="17">
+      <c r="S22" s="17">
         <v>643848</v>
       </c>
-      <c r="K22" s="17">
+      <c r="T22" s="17">
         <v>1090615</v>
       </c>
-      <c r="L22" s="17">
+      <c r="U22" s="17">
         <v>988516</v>
       </c>
-      <c r="M22" s="17">
+      <c r="V22" s="17">
         <v>756828</v>
       </c>
-      <c r="N22" s="17">
+      <c r="W22" s="17">
         <v>532263</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X22" s="17">
+        <v>879729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1249,8 +1699,18 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1264,8 +1724,18 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1279,10 +1749,20 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1316,8 +1796,38 @@
       <c r="N26" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1331,8 +1841,18 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1346,10 +1866,20 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1363,125 +1893,225 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
+        <v>701543</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1099026</v>
+      </c>
+      <c r="G30" s="9">
+        <v>796101</v>
+      </c>
+      <c r="H30" s="9">
+        <v>986955</v>
+      </c>
+      <c r="I30" s="9">
+        <v>863748</v>
+      </c>
+      <c r="J30" s="9">
+        <v>850516</v>
+      </c>
+      <c r="K30" s="9">
+        <v>635254</v>
+      </c>
+      <c r="L30" s="9">
+        <v>436124</v>
+      </c>
+      <c r="M30" s="9">
+        <v>717444</v>
+      </c>
+      <c r="N30" s="9">
         <v>1814100</v>
       </c>
-      <c r="F30" s="9">
+      <c r="O30" s="9">
         <v>3112702</v>
       </c>
-      <c r="G30" s="9">
+      <c r="P30" s="9">
         <v>2955533</v>
       </c>
-      <c r="H30" s="9">
+      <c r="Q30" s="9">
         <v>2596257</v>
       </c>
-      <c r="I30" s="9">
+      <c r="R30" s="9">
         <v>4394809</v>
       </c>
-      <c r="J30" s="9">
+      <c r="S30" s="9">
         <v>3742701</v>
       </c>
-      <c r="K30" s="9">
+      <c r="T30" s="9">
         <v>3018125</v>
       </c>
-      <c r="L30" s="9">
+      <c r="U30" s="9">
         <v>2973228</v>
       </c>
-      <c r="M30" s="9">
+      <c r="V30" s="9">
         <v>2839699</v>
       </c>
-      <c r="N30" s="9">
+      <c r="W30" s="9">
         <v>4537672</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X30" s="9">
+        <v>3268652</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
+        <v>255320</v>
+      </c>
+      <c r="F31" s="13">
+        <v>276916</v>
+      </c>
+      <c r="G31" s="13">
+        <v>149442</v>
+      </c>
+      <c r="H31" s="13">
+        <v>134716</v>
+      </c>
+      <c r="I31" s="13">
+        <v>101540</v>
+      </c>
+      <c r="J31" s="13">
+        <v>148673</v>
+      </c>
+      <c r="K31" s="13">
+        <v>361401</v>
+      </c>
+      <c r="L31" s="13">
+        <v>256762</v>
+      </c>
+      <c r="M31" s="13">
+        <v>217874</v>
+      </c>
+      <c r="N31" s="13">
         <v>219036</v>
       </c>
-      <c r="F31" s="13">
+      <c r="O31" s="13">
         <v>314486</v>
       </c>
-      <c r="G31" s="13">
+      <c r="P31" s="13">
         <v>266649</v>
       </c>
-      <c r="H31" s="13">
+      <c r="Q31" s="13">
         <v>229908</v>
       </c>
-      <c r="I31" s="13">
+      <c r="R31" s="13">
         <v>126672</v>
       </c>
-      <c r="J31" s="13">
+      <c r="S31" s="13">
         <v>170518</v>
       </c>
-      <c r="K31" s="13">
+      <c r="T31" s="13">
         <v>553354</v>
       </c>
-      <c r="L31" s="13">
+      <c r="U31" s="13">
         <v>443851</v>
       </c>
-      <c r="M31" s="13">
+      <c r="V31" s="13">
         <v>383587</v>
       </c>
-      <c r="N31" s="13">
+      <c r="W31" s="13">
         <v>256254</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X31" s="13">
+        <v>462077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
+        <v>956863</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1375942</v>
+      </c>
+      <c r="G32" s="15">
+        <v>945543</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1121671</v>
+      </c>
+      <c r="I32" s="15">
+        <v>965288</v>
+      </c>
+      <c r="J32" s="15">
+        <v>999189</v>
+      </c>
+      <c r="K32" s="15">
+        <v>996655</v>
+      </c>
+      <c r="L32" s="15">
+        <v>692886</v>
+      </c>
+      <c r="M32" s="15">
+        <v>935318</v>
+      </c>
+      <c r="N32" s="15">
         <v>2033136</v>
       </c>
-      <c r="F32" s="15">
+      <c r="O32" s="15">
         <v>3427188</v>
       </c>
-      <c r="G32" s="15">
+      <c r="P32" s="15">
         <v>3222182</v>
       </c>
-      <c r="H32" s="15">
+      <c r="Q32" s="15">
         <v>2826165</v>
       </c>
-      <c r="I32" s="15">
+      <c r="R32" s="15">
         <v>4521481</v>
       </c>
-      <c r="J32" s="15">
+      <c r="S32" s="15">
         <v>3913219</v>
       </c>
-      <c r="K32" s="15">
+      <c r="T32" s="15">
         <v>3571479</v>
       </c>
-      <c r="L32" s="15">
+      <c r="U32" s="15">
         <v>3417079</v>
       </c>
-      <c r="M32" s="15">
+      <c r="V32" s="15">
         <v>3223286</v>
       </c>
-      <c r="N32" s="15">
+      <c r="W32" s="15">
         <v>4793926</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X32" s="15">
+        <v>3730729</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1495,86 +2125,156 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
+        <v>23471110</v>
+      </c>
+      <c r="F34" s="9">
+        <v>23435965</v>
+      </c>
+      <c r="G34" s="9">
+        <v>13526008</v>
+      </c>
+      <c r="H34" s="9">
+        <v>21780792</v>
+      </c>
+      <c r="I34" s="9">
+        <v>19713027</v>
+      </c>
+      <c r="J34" s="9">
+        <v>20819849</v>
+      </c>
+      <c r="K34" s="9">
+        <v>11565130</v>
+      </c>
+      <c r="L34" s="9">
+        <v>19789726</v>
+      </c>
+      <c r="M34" s="9">
+        <v>24652268</v>
+      </c>
+      <c r="N34" s="9">
         <v>55357747</v>
       </c>
-      <c r="F34" s="9">
+      <c r="O34" s="9">
         <v>36346499</v>
       </c>
-      <c r="G34" s="9">
+      <c r="P34" s="9">
         <v>51463183</v>
       </c>
-      <c r="H34" s="9">
+      <c r="Q34" s="9">
         <v>51339755</v>
       </c>
-      <c r="I34" s="9">
+      <c r="R34" s="9">
         <v>41021731</v>
       </c>
-      <c r="J34" s="9">
+      <c r="S34" s="9">
         <v>34320728</v>
       </c>
-      <c r="K34" s="9">
+      <c r="T34" s="9">
         <v>65935735</v>
       </c>
-      <c r="L34" s="9">
+      <c r="U34" s="9">
         <v>54653710</v>
       </c>
-      <c r="M34" s="9">
+      <c r="V34" s="9">
         <v>43134089</v>
       </c>
-      <c r="N34" s="9">
+      <c r="W34" s="9">
         <v>35484302</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X34" s="9">
+        <v>63119776</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
+        <v>23471110</v>
+      </c>
+      <c r="F35" s="17">
+        <v>23435965</v>
+      </c>
+      <c r="G35" s="17">
+        <v>13526008</v>
+      </c>
+      <c r="H35" s="17">
+        <v>21780792</v>
+      </c>
+      <c r="I35" s="17">
+        <v>19713027</v>
+      </c>
+      <c r="J35" s="17">
+        <v>20819849</v>
+      </c>
+      <c r="K35" s="17">
+        <v>11565130</v>
+      </c>
+      <c r="L35" s="17">
+        <v>19789726</v>
+      </c>
+      <c r="M35" s="17">
+        <v>24652268</v>
+      </c>
+      <c r="N35" s="17">
         <v>55357747</v>
       </c>
-      <c r="F35" s="17">
+      <c r="O35" s="17">
         <v>36346499</v>
       </c>
-      <c r="G35" s="17">
+      <c r="P35" s="17">
         <v>51463183</v>
       </c>
-      <c r="H35" s="17">
+      <c r="Q35" s="17">
         <v>51339755</v>
       </c>
-      <c r="I35" s="17">
+      <c r="R35" s="17">
         <v>41021731</v>
       </c>
-      <c r="J35" s="17">
+      <c r="S35" s="17">
         <v>34320728</v>
       </c>
-      <c r="K35" s="17">
+      <c r="T35" s="17">
         <v>65935735</v>
       </c>
-      <c r="L35" s="17">
+      <c r="U35" s="17">
         <v>54653710</v>
       </c>
-      <c r="M35" s="17">
+      <c r="V35" s="17">
         <v>43134089</v>
       </c>
-      <c r="N35" s="17">
+      <c r="W35" s="17">
         <v>35484302</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X35" s="17">
+        <v>63119776</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -1588,10 +2288,20 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1625,13 +2335,43 @@
       <c r="N37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
@@ -1640,37 +2380,67 @@
       <c r="F38" s="17">
         <v>0</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>0</v>
+      </c>
+      <c r="R38" s="17">
+        <v>0</v>
+      </c>
+      <c r="S38" s="17">
+        <v>0</v>
+      </c>
+      <c r="T38" s="17">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
+        <v>0</v>
+      </c>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
@@ -1679,8 +2449,8 @@
       <c r="F39" s="15">
         <v>0</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>26</v>
+      <c r="G39" s="15">
+        <v>0</v>
       </c>
       <c r="H39" s="15">
         <v>0</v>
@@ -1703,45 +2473,105 @@
       <c r="N39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17">
+        <v>24427973</v>
+      </c>
+      <c r="F40" s="17">
+        <v>24811907</v>
+      </c>
+      <c r="G40" s="17">
+        <v>14471551</v>
+      </c>
+      <c r="H40" s="17">
+        <v>22902463</v>
+      </c>
+      <c r="I40" s="17">
+        <v>20678315</v>
+      </c>
+      <c r="J40" s="17">
+        <v>21819038</v>
+      </c>
+      <c r="K40" s="17">
+        <v>12561785</v>
+      </c>
+      <c r="L40" s="17">
+        <v>20482612</v>
+      </c>
+      <c r="M40" s="17">
+        <v>25587586</v>
+      </c>
+      <c r="N40" s="17">
         <v>57390883</v>
       </c>
-      <c r="F40" s="17">
+      <c r="O40" s="17">
         <v>39773687</v>
       </c>
-      <c r="G40" s="17">
+      <c r="P40" s="17">
         <v>54685365</v>
       </c>
-      <c r="H40" s="17">
+      <c r="Q40" s="17">
         <v>54165920</v>
       </c>
-      <c r="I40" s="17">
+      <c r="R40" s="17">
         <v>45543212</v>
       </c>
-      <c r="J40" s="17">
+      <c r="S40" s="17">
         <v>38233947</v>
       </c>
-      <c r="K40" s="17">
+      <c r="T40" s="17">
         <v>69507214</v>
       </c>
-      <c r="L40" s="17">
+      <c r="U40" s="17">
         <v>58070789</v>
       </c>
-      <c r="M40" s="17">
+      <c r="V40" s="17">
         <v>46357375</v>
       </c>
-      <c r="N40" s="17">
+      <c r="W40" s="17">
         <v>40278228</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X40" s="17">
+        <v>66850505</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1755,8 +2585,18 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1770,8 +2610,18 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1785,10 +2635,20 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1822,8 +2682,38 @@
       <c r="N44" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1837,8 +2727,18 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1852,10 +2752,20 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1869,88 +2779,158 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>14928988</v>
+      </c>
+      <c r="F48" s="9">
+        <v>23734500</v>
+      </c>
+      <c r="G48" s="9">
+        <v>20342430</v>
+      </c>
+      <c r="H48" s="9">
+        <v>24883519</v>
+      </c>
+      <c r="I48" s="9">
+        <v>22319647</v>
+      </c>
+      <c r="J48" s="9">
+        <v>18386752</v>
+      </c>
+      <c r="K48" s="9">
+        <v>18585547</v>
+      </c>
+      <c r="L48" s="9">
+        <v>16315289</v>
+      </c>
+      <c r="M48" s="9">
+        <v>18685384</v>
+      </c>
+      <c r="N48" s="9">
         <v>36815082</v>
       </c>
-      <c r="F48" s="9">
+      <c r="O48" s="9">
         <v>58684829</v>
       </c>
-      <c r="G48" s="9">
+      <c r="P48" s="9">
         <v>54738175</v>
       </c>
-      <c r="H48" s="9">
+      <c r="Q48" s="9">
         <v>55172599</v>
       </c>
-      <c r="I48" s="9">
+      <c r="R48" s="9">
         <v>82644922</v>
       </c>
-      <c r="J48" s="9">
+      <c r="S48" s="9">
         <v>73865697</v>
       </c>
-      <c r="K48" s="9">
+      <c r="T48" s="9">
         <v>68861999</v>
       </c>
-      <c r="L48" s="9">
+      <c r="U48" s="9">
         <v>66032994</v>
       </c>
-      <c r="M48" s="9">
+      <c r="V48" s="9">
         <v>66079344</v>
       </c>
-      <c r="N48" s="9">
+      <c r="W48" s="9">
         <v>82713792</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X48" s="9">
+        <v>67119489</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>448685</v>
+      </c>
+      <c r="F49" s="13">
+        <v>441556</v>
+      </c>
+      <c r="G49" s="13">
+        <v>441553</v>
+      </c>
+      <c r="H49" s="13">
+        <v>441556</v>
+      </c>
+      <c r="I49" s="13">
+        <v>260844</v>
+      </c>
+      <c r="J49" s="13">
+        <v>441555</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1964264</v>
+      </c>
+      <c r="L49" s="13">
+        <v>672125</v>
+      </c>
+      <c r="M49" s="13">
         <v>672133</v>
       </c>
-      <c r="F49" s="13">
+      <c r="N49" s="13">
+        <v>672133</v>
+      </c>
+      <c r="O49" s="13">
         <v>1390153</v>
       </c>
-      <c r="G49" s="13">
+      <c r="P49" s="13">
         <v>801222</v>
       </c>
-      <c r="H49" s="13">
+      <c r="Q49" s="13">
         <v>801221</v>
       </c>
-      <c r="I49" s="13">
+      <c r="R49" s="13">
         <v>801225</v>
       </c>
-      <c r="J49" s="13">
+      <c r="S49" s="13">
         <v>801220</v>
       </c>
-      <c r="K49" s="13">
+      <c r="T49" s="13">
         <v>1802750</v>
       </c>
-      <c r="L49" s="13">
+      <c r="U49" s="13">
         <v>1802748</v>
       </c>
-      <c r="M49" s="13">
+      <c r="V49" s="13">
         <v>1802748</v>
       </c>
-      <c r="N49" s="13">
+      <c r="W49" s="13">
         <v>1802752</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X49" s="13">
+        <v>2003056</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -1964,47 +2944,87 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>34504059</v>
+      </c>
+      <c r="F51" s="9">
+        <v>27674412</v>
+      </c>
+      <c r="G51" s="9">
+        <v>22516514</v>
+      </c>
+      <c r="H51" s="9">
+        <v>29791402</v>
+      </c>
+      <c r="I51" s="9">
+        <v>27932857</v>
+      </c>
+      <c r="J51" s="9">
+        <v>24237169</v>
+      </c>
+      <c r="K51" s="9">
+        <v>31775827</v>
+      </c>
+      <c r="L51" s="9">
+        <v>24923680</v>
+      </c>
+      <c r="M51" s="9">
+        <v>36563480</v>
+      </c>
+      <c r="N51" s="9">
         <v>63115457</v>
       </c>
-      <c r="F51" s="9">
+      <c r="O51" s="9">
         <v>72310332</v>
       </c>
-      <c r="G51" s="9">
+      <c r="P51" s="9">
         <v>66595817</v>
       </c>
-      <c r="H51" s="9">
+      <c r="Q51" s="9">
         <v>76973801</v>
       </c>
-      <c r="I51" s="9">
+      <c r="R51" s="9">
         <v>96987717</v>
       </c>
-      <c r="J51" s="9">
+      <c r="S51" s="9">
         <v>90233171</v>
       </c>
-      <c r="K51" s="9">
+      <c r="T51" s="9">
         <v>89122024</v>
       </c>
-      <c r="L51" s="9">
+      <c r="U51" s="9">
         <v>78381139</v>
       </c>
-      <c r="M51" s="9">
+      <c r="V51" s="9">
         <v>86083079</v>
       </c>
-      <c r="N51" s="9">
+      <c r="W51" s="9">
         <v>105842129</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X51" s="9">
+        <v>105139331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2018,8 +3038,18 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2033,8 +3063,18 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2048,10 +3088,20 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2085,8 +3135,38 @@
       <c r="N55" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2100,8 +3180,18 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2115,10 +3205,20 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2132,125 +3232,225 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>-629524</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-622405</v>
+      </c>
+      <c r="G59" s="9">
+        <v>-512111</v>
+      </c>
+      <c r="H59" s="9">
+        <v>-384164</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-380043</v>
+      </c>
+      <c r="J59" s="9">
+        <v>-596203</v>
+      </c>
+      <c r="K59" s="9">
+        <v>-628263</v>
+      </c>
+      <c r="L59" s="9">
+        <v>-277152</v>
+      </c>
+      <c r="M59" s="9">
+        <v>-208138</v>
+      </c>
+      <c r="N59" s="9">
         <v>-1422614</v>
       </c>
-      <c r="F59" s="9">
+      <c r="O59" s="9">
         <v>-1492512</v>
       </c>
-      <c r="G59" s="9">
+      <c r="P59" s="9">
         <v>-1362087</v>
       </c>
-      <c r="H59" s="9">
+      <c r="Q59" s="9">
         <v>-1902081</v>
       </c>
-      <c r="I59" s="9">
+      <c r="R59" s="9">
         <v>-3007612</v>
       </c>
-      <c r="J59" s="9">
+      <c r="S59" s="9">
         <v>-4783268</v>
       </c>
-      <c r="K59" s="9">
+      <c r="T59" s="9">
         <v>-2465959</v>
       </c>
-      <c r="L59" s="9">
+      <c r="U59" s="9">
         <v>-2730821</v>
       </c>
-      <c r="M59" s="9">
+      <c r="V59" s="9">
         <v>-2397434</v>
       </c>
-      <c r="N59" s="9">
+      <c r="W59" s="9">
         <v>-3402468</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X59" s="9">
+        <v>-2902789</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>-51233</v>
+      </c>
+      <c r="F60" s="13">
+        <v>-14996</v>
+      </c>
+      <c r="G60" s="13">
+        <v>-25744</v>
+      </c>
+      <c r="H60" s="13">
+        <v>-24419</v>
+      </c>
+      <c r="I60" s="13">
+        <v>-8269</v>
+      </c>
+      <c r="J60" s="13">
+        <v>-25571</v>
+      </c>
+      <c r="K60" s="13">
+        <v>-27360</v>
+      </c>
+      <c r="L60" s="13">
+        <v>-20641</v>
+      </c>
+      <c r="M60" s="13">
+        <v>-17287</v>
+      </c>
+      <c r="N60" s="13">
         <v>-46873</v>
       </c>
-      <c r="F60" s="13">
+      <c r="O60" s="13">
         <v>-22894</v>
       </c>
-      <c r="G60" s="13">
+      <c r="P60" s="13">
         <v>-36680</v>
       </c>
-      <c r="H60" s="13">
+      <c r="Q60" s="13">
         <v>-22125</v>
       </c>
-      <c r="I60" s="13">
+      <c r="R60" s="13">
         <v>-38102</v>
       </c>
-      <c r="J60" s="13">
+      <c r="S60" s="13">
         <v>-50020</v>
       </c>
-      <c r="K60" s="13">
+      <c r="T60" s="13">
         <v>-49050</v>
       </c>
-      <c r="L60" s="13">
+      <c r="U60" s="13">
         <v>-56139</v>
       </c>
-      <c r="M60" s="13">
+      <c r="V60" s="13">
         <v>-35357</v>
       </c>
-      <c r="N60" s="13">
+      <c r="W60" s="13">
         <v>-56624</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X60" s="13">
+        <v>-52639</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
+        <v>-680757</v>
+      </c>
+      <c r="F61" s="15">
+        <v>-637401</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-537855</v>
+      </c>
+      <c r="H61" s="15">
+        <v>-408583</v>
+      </c>
+      <c r="I61" s="15">
+        <v>-388312</v>
+      </c>
+      <c r="J61" s="15">
+        <v>-621774</v>
+      </c>
+      <c r="K61" s="15">
+        <v>-655623</v>
+      </c>
+      <c r="L61" s="15">
+        <v>-297793</v>
+      </c>
+      <c r="M61" s="15">
+        <v>-225425</v>
+      </c>
+      <c r="N61" s="15">
         <v>-1469487</v>
       </c>
-      <c r="F61" s="15">
+      <c r="O61" s="15">
         <v>-1515406</v>
       </c>
-      <c r="G61" s="15">
+      <c r="P61" s="15">
         <v>-1398767</v>
       </c>
-      <c r="H61" s="15">
+      <c r="Q61" s="15">
         <v>-1924206</v>
       </c>
-      <c r="I61" s="15">
+      <c r="R61" s="15">
         <v>-3045714</v>
       </c>
-      <c r="J61" s="15">
+      <c r="S61" s="15">
         <v>-4833288</v>
       </c>
-      <c r="K61" s="15">
+      <c r="T61" s="15">
         <v>-2515009</v>
       </c>
-      <c r="L61" s="15">
+      <c r="U61" s="15">
         <v>-2786960</v>
       </c>
-      <c r="M61" s="15">
+      <c r="V61" s="15">
         <v>-2432791</v>
       </c>
-      <c r="N61" s="15">
+      <c r="W61" s="15">
         <v>-3459092</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X61" s="15">
+        <v>-2955428</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2264,86 +3464,156 @@
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>-9296235</v>
+      </c>
+      <c r="F63" s="9">
+        <v>-10749752</v>
+      </c>
+      <c r="G63" s="9">
+        <v>-7931190</v>
+      </c>
+      <c r="H63" s="9">
+        <v>-7081323</v>
+      </c>
+      <c r="I63" s="9">
+        <v>-6931105</v>
+      </c>
+      <c r="J63" s="9">
+        <v>-11050285</v>
+      </c>
+      <c r="K63" s="9">
+        <v>-8246553</v>
+      </c>
+      <c r="L63" s="9">
+        <v>-8232488</v>
+      </c>
+      <c r="M63" s="9">
+        <v>-10463631</v>
+      </c>
+      <c r="N63" s="9">
         <v>-20417079</v>
       </c>
-      <c r="F63" s="9">
+      <c r="O63" s="9">
         <v>-18722915</v>
       </c>
-      <c r="G63" s="9">
+      <c r="P63" s="9">
         <v>-19494368</v>
       </c>
-      <c r="H63" s="9">
+      <c r="Q63" s="9">
         <v>-27012566</v>
       </c>
-      <c r="I63" s="9">
+      <c r="R63" s="9">
         <v>-29241110</v>
       </c>
-      <c r="J63" s="9">
+      <c r="S63" s="9">
         <v>-45274404</v>
       </c>
-      <c r="K63" s="9">
+      <c r="T63" s="9">
         <v>-41626528</v>
       </c>
-      <c r="L63" s="9">
+      <c r="U63" s="9">
         <v>-42424858</v>
       </c>
-      <c r="M63" s="9">
+      <c r="V63" s="9">
         <v>-27601229</v>
       </c>
-      <c r="N63" s="9">
+      <c r="W63" s="9">
         <v>-22262120</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X63" s="9">
+        <v>-35784557</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17">
+        <v>-9296235</v>
+      </c>
+      <c r="F64" s="17">
+        <v>-10749752</v>
+      </c>
+      <c r="G64" s="17">
+        <v>-7931190</v>
+      </c>
+      <c r="H64" s="17">
+        <v>-7081323</v>
+      </c>
+      <c r="I64" s="17">
+        <v>-6931105</v>
+      </c>
+      <c r="J64" s="17">
+        <v>-11050285</v>
+      </c>
+      <c r="K64" s="17">
+        <v>-8246553</v>
+      </c>
+      <c r="L64" s="17">
+        <v>-8232488</v>
+      </c>
+      <c r="M64" s="17">
+        <v>-10463631</v>
+      </c>
+      <c r="N64" s="17">
         <v>-20417079</v>
       </c>
-      <c r="F64" s="17">
+      <c r="O64" s="17">
         <v>-18722915</v>
       </c>
-      <c r="G64" s="17">
+      <c r="P64" s="17">
         <v>-19494368</v>
       </c>
-      <c r="H64" s="17">
+      <c r="Q64" s="17">
         <v>-27012566</v>
       </c>
-      <c r="I64" s="17">
+      <c r="R64" s="17">
         <v>-29241110</v>
       </c>
-      <c r="J64" s="17">
+      <c r="S64" s="17">
         <v>-45274404</v>
       </c>
-      <c r="K64" s="17">
+      <c r="T64" s="17">
         <v>-41626528</v>
       </c>
-      <c r="L64" s="17">
+      <c r="U64" s="17">
         <v>-42424858</v>
       </c>
-      <c r="M64" s="17">
+      <c r="V64" s="17">
         <v>-27601229</v>
       </c>
-      <c r="N64" s="17">
+      <c r="W64" s="17">
         <v>-22262120</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X64" s="17">
+        <v>-35784557</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -2357,10 +3627,20 @@
       <c r="L65" s="19"/>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -2394,13 +3674,43 @@
       <c r="N66" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="15">
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>0</v>
+      </c>
+      <c r="R66" s="15">
+        <v>0</v>
+      </c>
+      <c r="S66" s="15">
+        <v>0</v>
+      </c>
+      <c r="T66" s="15">
+        <v>0</v>
+      </c>
+      <c r="U66" s="15">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15">
+        <v>0</v>
+      </c>
+      <c r="W66" s="15">
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17">
@@ -2409,37 +3719,67 @@
       <c r="F67" s="17">
         <v>0</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17">
+        <v>0</v>
+      </c>
+      <c r="L67" s="17">
+        <v>0</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0</v>
+      </c>
+      <c r="N67" s="17">
+        <v>0</v>
+      </c>
+      <c r="O67" s="17">
+        <v>0</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>0</v>
+      </c>
+      <c r="R67" s="17">
+        <v>0</v>
+      </c>
+      <c r="S67" s="17">
+        <v>0</v>
+      </c>
+      <c r="T67" s="17">
+        <v>0</v>
+      </c>
+      <c r="U67" s="17">
+        <v>0</v>
+      </c>
+      <c r="V67" s="17">
+        <v>0</v>
+      </c>
+      <c r="W67" s="17">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
@@ -2448,8 +3788,8 @@
       <c r="F68" s="15">
         <v>0</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>26</v>
+      <c r="G68" s="15">
+        <v>0</v>
       </c>
       <c r="H68" s="15">
         <v>0</v>
@@ -2472,45 +3812,105 @@
       <c r="N68" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="15">
+        <v>0</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X68" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17">
+        <v>-9976992</v>
+      </c>
+      <c r="F69" s="17">
+        <v>-11387153</v>
+      </c>
+      <c r="G69" s="17">
+        <v>-8469045</v>
+      </c>
+      <c r="H69" s="17">
+        <v>-7489906</v>
+      </c>
+      <c r="I69" s="17">
+        <v>-7319417</v>
+      </c>
+      <c r="J69" s="17">
+        <v>-11672059</v>
+      </c>
+      <c r="K69" s="17">
+        <v>-8902176</v>
+      </c>
+      <c r="L69" s="17">
+        <v>-8530281</v>
+      </c>
+      <c r="M69" s="17">
+        <v>-10689056</v>
+      </c>
+      <c r="N69" s="17">
         <v>-21886566</v>
       </c>
-      <c r="F69" s="17">
+      <c r="O69" s="17">
         <v>-20238321</v>
       </c>
-      <c r="G69" s="17">
+      <c r="P69" s="17">
         <v>-20893135</v>
       </c>
-      <c r="H69" s="17">
+      <c r="Q69" s="17">
         <v>-28936772</v>
       </c>
-      <c r="I69" s="17">
+      <c r="R69" s="17">
         <v>-32286824</v>
       </c>
-      <c r="J69" s="17">
+      <c r="S69" s="17">
         <v>-50107692</v>
       </c>
-      <c r="K69" s="17">
+      <c r="T69" s="17">
         <v>-44141537</v>
       </c>
-      <c r="L69" s="17">
+      <c r="U69" s="17">
         <v>-45211818</v>
       </c>
-      <c r="M69" s="17">
+      <c r="V69" s="17">
         <v>-30034020</v>
       </c>
-      <c r="N69" s="17">
+      <c r="W69" s="17">
         <v>-25721212</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X69" s="17">
+        <v>-38739985</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2524,8 +3924,18 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2539,8 +3949,18 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2554,10 +3974,20 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2591,8 +4021,38 @@
       <c r="N73" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X73" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2606,8 +4066,18 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2621,10 +4091,20 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -2638,125 +4118,225 @@
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>617345</v>
+      </c>
+      <c r="F77" s="9">
+        <v>476621</v>
+      </c>
+      <c r="G77" s="9">
+        <v>283990</v>
+      </c>
+      <c r="H77" s="9">
+        <v>602791</v>
+      </c>
+      <c r="I77" s="9">
+        <v>483705</v>
+      </c>
+      <c r="J77" s="9">
+        <v>254313</v>
+      </c>
+      <c r="K77" s="9">
+        <v>6991</v>
+      </c>
+      <c r="L77" s="9">
+        <v>158972</v>
+      </c>
+      <c r="M77" s="9">
+        <v>509306</v>
+      </c>
+      <c r="N77" s="9">
         <v>391486</v>
       </c>
-      <c r="F77" s="9">
+      <c r="O77" s="9">
         <v>1620190</v>
       </c>
-      <c r="G77" s="9">
+      <c r="P77" s="9">
         <v>1593446</v>
       </c>
-      <c r="H77" s="9">
+      <c r="Q77" s="9">
         <v>694176</v>
       </c>
-      <c r="I77" s="9">
+      <c r="R77" s="9">
         <v>1387197</v>
       </c>
-      <c r="J77" s="9">
+      <c r="S77" s="9">
         <v>-1040567</v>
       </c>
-      <c r="K77" s="9">
+      <c r="T77" s="9">
         <v>552166</v>
       </c>
-      <c r="L77" s="9">
+      <c r="U77" s="9">
         <v>242407</v>
       </c>
-      <c r="M77" s="9">
+      <c r="V77" s="9">
         <v>442265</v>
       </c>
-      <c r="N77" s="9">
+      <c r="W77" s="9">
         <v>1135204</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X77" s="9">
+        <v>365863</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>381401</v>
+      </c>
+      <c r="F78" s="13">
+        <v>261920</v>
+      </c>
+      <c r="G78" s="13">
+        <v>123698</v>
+      </c>
+      <c r="H78" s="13">
+        <v>110297</v>
+      </c>
+      <c r="I78" s="13">
+        <v>163618</v>
+      </c>
+      <c r="J78" s="13">
+        <v>123102</v>
+      </c>
+      <c r="K78" s="13">
+        <v>334041</v>
+      </c>
+      <c r="L78" s="13">
+        <v>236121</v>
+      </c>
+      <c r="M78" s="13">
+        <v>200587</v>
+      </c>
+      <c r="N78" s="13">
         <v>172163</v>
       </c>
-      <c r="F78" s="13">
+      <c r="O78" s="13">
         <v>291592</v>
       </c>
-      <c r="G78" s="13">
+      <c r="P78" s="13">
         <v>229969</v>
       </c>
-      <c r="H78" s="13">
+      <c r="Q78" s="13">
         <v>207783</v>
       </c>
-      <c r="I78" s="13">
+      <c r="R78" s="13">
         <v>88570</v>
       </c>
-      <c r="J78" s="13">
+      <c r="S78" s="13">
         <v>120498</v>
       </c>
-      <c r="K78" s="13">
+      <c r="T78" s="13">
         <v>504304</v>
       </c>
-      <c r="L78" s="13">
+      <c r="U78" s="13">
         <v>387712</v>
       </c>
-      <c r="M78" s="13">
+      <c r="V78" s="13">
         <v>348230</v>
       </c>
-      <c r="N78" s="13">
+      <c r="W78" s="13">
         <v>199630</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X78" s="13">
+        <v>409438</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>998746</v>
+      </c>
+      <c r="F79" s="15">
+        <v>738541</v>
+      </c>
+      <c r="G79" s="15">
+        <v>407688</v>
+      </c>
+      <c r="H79" s="15">
+        <v>713088</v>
+      </c>
+      <c r="I79" s="15">
+        <v>647323</v>
+      </c>
+      <c r="J79" s="15">
+        <v>377415</v>
+      </c>
+      <c r="K79" s="15">
+        <v>341032</v>
+      </c>
+      <c r="L79" s="15">
+        <v>395093</v>
+      </c>
+      <c r="M79" s="15">
+        <v>709893</v>
+      </c>
+      <c r="N79" s="15">
         <v>563649</v>
       </c>
-      <c r="F79" s="15">
+      <c r="O79" s="15">
         <v>1911782</v>
       </c>
-      <c r="G79" s="15">
+      <c r="P79" s="15">
         <v>1823415</v>
       </c>
-      <c r="H79" s="15">
+      <c r="Q79" s="15">
         <v>901959</v>
       </c>
-      <c r="I79" s="15">
+      <c r="R79" s="15">
         <v>1475767</v>
       </c>
-      <c r="J79" s="15">
+      <c r="S79" s="15">
         <v>-920069</v>
       </c>
-      <c r="K79" s="15">
+      <c r="T79" s="15">
         <v>1056470</v>
       </c>
-      <c r="L79" s="15">
+      <c r="U79" s="15">
         <v>630119</v>
       </c>
-      <c r="M79" s="15">
+      <c r="V79" s="15">
         <v>790495</v>
       </c>
-      <c r="N79" s="15">
+      <c r="W79" s="15">
         <v>1334834</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X79" s="15">
+        <v>775301</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2770,86 +4350,156 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>23586237</v>
+      </c>
+      <c r="F81" s="9">
+        <v>12686213</v>
+      </c>
+      <c r="G81" s="9">
+        <v>5594818</v>
+      </c>
+      <c r="H81" s="9">
+        <v>14699469</v>
+      </c>
+      <c r="I81" s="9">
+        <v>12781922</v>
+      </c>
+      <c r="J81" s="9">
+        <v>9769564</v>
+      </c>
+      <c r="K81" s="9">
+        <v>3318577</v>
+      </c>
+      <c r="L81" s="9">
+        <v>11557238</v>
+      </c>
+      <c r="M81" s="9">
+        <v>14188637</v>
+      </c>
+      <c r="N81" s="9">
         <v>34940668</v>
       </c>
-      <c r="F81" s="9">
+      <c r="O81" s="9">
         <v>17623584</v>
       </c>
-      <c r="G81" s="9">
+      <c r="P81" s="9">
         <v>31968815</v>
       </c>
-      <c r="H81" s="9">
+      <c r="Q81" s="9">
         <v>24327189</v>
       </c>
-      <c r="I81" s="9">
+      <c r="R81" s="9">
         <v>11780621</v>
       </c>
-      <c r="J81" s="9">
+      <c r="S81" s="9">
         <v>-10953676</v>
       </c>
-      <c r="K81" s="9">
+      <c r="T81" s="9">
         <v>24309207</v>
       </c>
-      <c r="L81" s="9">
+      <c r="U81" s="9">
         <v>12228852</v>
       </c>
-      <c r="M81" s="9">
+      <c r="V81" s="9">
         <v>15532860</v>
       </c>
-      <c r="N81" s="9">
+      <c r="W81" s="9">
         <v>13222182</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X81" s="9">
+        <v>27335219</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17">
+        <v>23586237</v>
+      </c>
+      <c r="F82" s="17">
+        <v>12686213</v>
+      </c>
+      <c r="G82" s="17">
+        <v>5594818</v>
+      </c>
+      <c r="H82" s="17">
+        <v>14699469</v>
+      </c>
+      <c r="I82" s="17">
+        <v>12781922</v>
+      </c>
+      <c r="J82" s="17">
+        <v>9769564</v>
+      </c>
+      <c r="K82" s="17">
+        <v>3318577</v>
+      </c>
+      <c r="L82" s="17">
+        <v>11557238</v>
+      </c>
+      <c r="M82" s="17">
+        <v>14188637</v>
+      </c>
+      <c r="N82" s="17">
         <v>34940668</v>
       </c>
-      <c r="F82" s="17">
+      <c r="O82" s="17">
         <v>17623584</v>
       </c>
-      <c r="G82" s="17">
+      <c r="P82" s="17">
         <v>31968815</v>
       </c>
-      <c r="H82" s="17">
+      <c r="Q82" s="17">
         <v>24327189</v>
       </c>
-      <c r="I82" s="17">
+      <c r="R82" s="17">
         <v>11780621</v>
       </c>
-      <c r="J82" s="17">
+      <c r="S82" s="17">
         <v>-10953676</v>
       </c>
-      <c r="K82" s="17">
+      <c r="T82" s="17">
         <v>24309207</v>
       </c>
-      <c r="L82" s="17">
+      <c r="U82" s="17">
         <v>12228852</v>
       </c>
-      <c r="M82" s="17">
+      <c r="V82" s="17">
         <v>15532860</v>
       </c>
-      <c r="N82" s="17">
+      <c r="W82" s="17">
         <v>13222182</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X82" s="17">
+        <v>27335219</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
@@ -2863,10 +4513,20 @@
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -2900,71 +4560,131 @@
       <c r="N84" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="15">
+        <v>0</v>
+      </c>
+      <c r="P84" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="15">
+        <v>0</v>
+      </c>
+      <c r="R84" s="15">
+        <v>0</v>
+      </c>
+      <c r="S84" s="15">
+        <v>0</v>
+      </c>
+      <c r="T84" s="15">
+        <v>0</v>
+      </c>
+      <c r="U84" s="15">
+        <v>0</v>
+      </c>
+      <c r="V84" s="15">
+        <v>0</v>
+      </c>
+      <c r="W84" s="15">
+        <v>0</v>
+      </c>
+      <c r="X84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
-        <v>0</v>
+      <c r="E85" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="K85" s="13">
+        <v>0</v>
+      </c>
+      <c r="L85" s="13">
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0</v>
+      </c>
+      <c r="O85" s="13">
+        <v>0</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>0</v>
+      </c>
+      <c r="R85" s="13">
+        <v>0</v>
+      </c>
+      <c r="S85" s="13">
+        <v>0</v>
+      </c>
+      <c r="T85" s="13">
+        <v>0</v>
+      </c>
+      <c r="U85" s="13">
+        <v>0</v>
+      </c>
+      <c r="V85" s="13">
+        <v>0</v>
+      </c>
+      <c r="W85" s="13">
+        <v>0</v>
+      </c>
+      <c r="X85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>0</v>
+      <c r="E86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="9">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
-      <c r="J86" s="9">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="K86" s="9">
         <v>0</v>
@@ -2978,42 +4698,102 @@
       <c r="N86" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="9">
+        <v>0</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X86" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17">
+        <v>24584983</v>
+      </c>
+      <c r="F87" s="17">
+        <v>13424754</v>
+      </c>
+      <c r="G87" s="17">
+        <v>6002506</v>
+      </c>
+      <c r="H87" s="17">
+        <v>15412557</v>
+      </c>
+      <c r="I87" s="17">
+        <v>13429245</v>
+      </c>
+      <c r="J87" s="17">
+        <v>10146979</v>
+      </c>
+      <c r="K87" s="17">
+        <v>3659609</v>
+      </c>
+      <c r="L87" s="17">
+        <v>11952331</v>
+      </c>
+      <c r="M87" s="17">
+        <v>14898530</v>
+      </c>
+      <c r="N87" s="17">
         <v>35504317</v>
       </c>
-      <c r="F87" s="17">
+      <c r="O87" s="17">
         <v>19535366</v>
       </c>
-      <c r="G87" s="17">
+      <c r="P87" s="17">
         <v>33792230</v>
       </c>
-      <c r="H87" s="17">
+      <c r="Q87" s="17">
         <v>25229148</v>
       </c>
-      <c r="I87" s="17">
+      <c r="R87" s="17">
         <v>13256388</v>
       </c>
-      <c r="J87" s="17">
+      <c r="S87" s="17">
         <v>-11873745</v>
       </c>
-      <c r="K87" s="17">
+      <c r="T87" s="17">
         <v>25365677</v>
       </c>
-      <c r="L87" s="17">
+      <c r="U87" s="17">
         <v>12858971</v>
       </c>
-      <c r="M87" s="17">
+      <c r="V87" s="17">
         <v>16323355</v>
       </c>
-      <c r="N87" s="17">
+      <c r="W87" s="17">
         <v>14557016</v>
+      </c>
+      <c r="X87" s="17">
+        <v>28110520</v>
       </c>
     </row>
   </sheetData>
